--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tên mới</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Liên hệ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://via.placeholder.com/400x300?text=No+Image</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,9 +494,6 @@
           <t>Liên hệ</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>https://</t>
@@ -507,11 +504,1039 @@
           <t>https://via.placeholder.com/400x300?text=No+Image</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[AMINO MICELLAR MỚI] Nước tẩy trang làm sạch sâu, loại bỏ bụi bẩn &amp; trang điểm 3-in-1 L'Oreal Paris Micellar Water 400ml</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>₫209.000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2tr+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/5L6mEnuqVo</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261o-ml7cor6c1amc45.webp</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>shopee_591989399</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>fb6dea9f222e9cb46c2deae643f596a8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Máy sấy tóc mini CWell gấp gọn 2 chiều nóng lạnh C01HD, công suất 1200W, ánh sáng xanh bảo vệ tóc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>₫129.000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80k+</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/5VQCR6uDAr</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4oa728rqpv69.webp</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>shopee_17095132248</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>af9e0ef416094e5f465809251dc4d2b4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[CHỐNG NẮNG WATERGEL MỚI] Chống Nắng Phổ Rộng Thoáng Da, Kháng Mọi Tác Động UV Defender SPF 50+ PA++++ Loreal Paris 50ml</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>₫324.000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>600k+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/5fjcdPtZpu</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261h-ml7coobou03z74.webp</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>shopee_8143545820</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>87b7f044207052396d1689bb20abde09</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bộ gội xả dưỡng tóc suôn mượt cao cấp L'Oreal Paris Extraordinary Oil Smooth 440ml x2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>₫449.000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>100k+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/5q32piswUx</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-825zn-ml7col8wojcy4d.webp</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>shopee_15462059521</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>c1748aa99dd701cb08a5a55b8fd4462a</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bộ 2 nước tẩy trang đa năng 3in1 tươi mát L'Oreal Paris (xanh dương nhạt) 400ml</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>₫399.000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>200k+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/7KrqcTnESG</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261p-ml7cop6p416r1b.webp</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>shopee_3854824846</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>8f6c386f1b6a2fe1a16310c4ea4b5337</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Máy Sấy Tóc Ion Âm 2 Chiều Nóng Lạnh Chăm Sóc Tóc Tốc Độ, Có 3 Chế Độ Sấy, Tặng Kèm Đầu Sấy Tạo Kiểu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>₫379.000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>200k+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/7VBGommb7J</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1u5txjjhtzd5.webp</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>shopee_25306110681</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2846f4afc78b36d54b453f1f41279d83</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Serum Glycolic Melasyl 8% [Melasyl+Glycolic+Niacinamide] dưỡng sáng da, mờ thâm mụn &amp; nám Loreal Paris 30ml</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>₫409.000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>200k+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/7fUh15lxmM</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-82610-ml7colg58vt06a.webp</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>shopee_15118600010</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>bcd5f2abd45e412293f2cbfb8be983fa</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sữa tắm gội nam 3in1 RHYS MAN hương nước hoa Rhys Legend 350ml</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>₫179.000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80k+</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/7po7DOlKRP</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml203589pjic6d.webp</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>shopee_14287246784</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>63f7c6799abbac79b6d96b78830cd478</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Son Tint Romand Căng Bóng The Juicy Lasting Tint ThegioiSkinfood</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>₫179.000</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>200k+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6fc9pFploC</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml2deklva96udc.webp</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>shopee_13465171355</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2a91bcfae0544188d25925ae47587f1b</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Máy sấy tóc CWell 1800W gập gọn 2 chiều nóng lạnh, 3 chế độ nhiệt, ánh sáng xanh- BẢN NÂNG CẤP C05HD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>₫199.000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100k+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/6pva1Yp8TF</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4o9wjg24n606.webp</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>shopee_22243977722</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>d2981accec56e74b88b5eca6a27190fe</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tẩy da chết Cocoon Chiết xuất cà phê Đắk Lắk, cấp ẩm cho da, giúp da mềm mịn- Tẩy Da Chết cho mặt, cho body</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>₫150.000</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>300k+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>19,5%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/70F0DroV8I</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m3khvmh5tc4oc4.webp</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>shopee_26608010471</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>c8818b14cff1bcd05d53f26d222295b5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sữa tắm gội nam hương nước hoa 3 in 1 RHYS MAN Rhys Legend 350ml</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>₫179.000</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>100k+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/7AYQQAnrnL</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1zojxuyubn21.webp</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>shopee_14582887112</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>d1f765685784261d11f47517d42ec532</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>kem nền Mistine kem lót 30g 36H Kiềm dầu không trôi</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>₫198.000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>100k+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/3LLhr82SZc</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/cn-11134207-820l4-mfthe25b37k8bc.webp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>shopee_18553714799</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>cdfa043e8d1209dbd10cfd61b94b65ed</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dr Flash Máy Sấy Tóc 1 tỷ ion âm，Công suất 2800w, sấy khô nhanh/chăm sóc tóc - Màu đen</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>₫370.000</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>100k+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/3Vf83R1pEf</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mhulhu41gge803.webp</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>shopee_24079867848</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>229f7695c2ff57bd946bdb24c90dbe3b</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sữa rửa mặt dưỡng ẩm tối ưu Hada Labo Advanced Nourish Cleanser 80g</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>₫77.000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>400k+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/3fyYFk1Bti</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/1f62fd9f67b213be415478d43b9e42bf.webp</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>shopee_1566936005</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>849635b53a2e6cd7548a060245ae5721</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bọt vệ sinh nam giới Oniiz Dung dịch tạo bọt hương nước hoa 100ml</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>₫125.000</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>400k+</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/3qHyS30YYl</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mborpnoc4rjmd8.webp</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>shopee_4293068799</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>12f80bd738cce54615d31881f3974c58</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nước tẩy trang bí đao The Cocoon Vietnam 500ml thuần chay cho da dầu mụn</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>₫240.000</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60k+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7,5%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/2g613u4zvY</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mkqtedh7vgg624.webp</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>shopee_22446628559</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>89a14506cb4084ff9a928c68fea6fbab</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Máy uốn tóc tự động, trục 32mm tạo kiểu tóc, chất liệu gốm cao cấp ion âm, phiên bản cao cấp - Lù Store</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>₫220.000</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90k+</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/2qPRGD4Mab</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7r98o-lzrc9onl0fv13c.webp</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>shopee_28957614824</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>b016cf329549746b58506b1d6319875d</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sữa rửa mặt foaming giúp làm sạch sâu và dưỡng ẩm dịu nhẹ dành cho da dầu - CeraVe Foaming Facial Cleanser 473ML</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>₫465.000</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>400k+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/30irSW3jFe</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-82633-ml58b3djcdu28c.webp</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>shopee_18832327227</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1f80f0b69e0c2a99f7d20c5f0d641d5e</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dầu gội bồ kết - bưởi, dầu gội thảo dược thuần chay hỗ trợ kích mọc tóc Giọt Lành 500ml</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>₫185.000</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>200k+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://s.shopee.vn/3B2Hep35uh</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mj9a612806bn7c.webp</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>shopee_6171847320</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>23e2b776a866067d88e820cd4fcdc53f</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -481,32 +481,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Shopee</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tên mới</t>
+          <t>kem nền Mistine kem lót 30g 36H Kiềm dầu không trôi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Liên hệ</t>
+          <t>₫198.000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>100k+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://</t>
+          <t>https://s.shopee.vn/3LLhr82SZc</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://via.placeholder.com/400x300?text=No+Image</t>
+          <t>https://down-bs-vn.img.susercontent.com/cn-11134207-820l4-mfthe25b37k8bc.webp</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>shopee_18553714799</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+          <t>cdfa043e8d1209dbd10cfd61b94b65ed</t>
         </is>
       </c>
     </row>
@@ -518,47 +538,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[AMINO MICELLAR MỚI] Nước tẩy trang làm sạch sâu, loại bỏ bụi bẩn &amp; trang điểm 3-in-1 L'Oreal Paris Micellar Water 400ml</t>
+          <t>Sữa tắm gội nam hương nước hoa 3 in 1 RHYS MAN Rhys Legend 350ml</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>₫209.000</t>
+          <t>₫179.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2tr+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/5L6mEnuqVo</t>
+          <t>https://s.shopee.vn/7AYQQAnrnL</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261o-ml7cor6c1amc45.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1zojxuyubn21.webp</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>shopee_591989399</t>
+          <t>shopee_14582887112</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>fb6dea9f222e9cb46c2deae643f596a8</t>
+          <t>d1f765685784261d11f47517d42ec532</t>
         </is>
       </c>
     </row>
@@ -570,47 +590,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Máy sấy tóc mini CWell gấp gọn 2 chiều nóng lạnh C01HD, công suất 1200W, ánh sáng xanh bảo vệ tóc</t>
+          <t>Son Tint Romand Căng Bóng The Juicy Lasting Tint ThegioiSkinfood</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>₫129.000</t>
+          <t>₫179.000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80k+</t>
+          <t>200k+</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/5VQCR6uDAr</t>
+          <t>https://s.shopee.vn/6fc9pFploC</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4oa728rqpv69.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml2deklva96udc.webp</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>shopee_17095132248</t>
+          <t>shopee_13465171355</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>af9e0ef416094e5f465809251dc4d2b4</t>
+          <t>2a91bcfae0544188d25925ae47587f1b</t>
         </is>
       </c>
     </row>
@@ -622,47 +642,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[CHỐNG NẮNG WATERGEL MỚI] Chống Nắng Phổ Rộng Thoáng Da, Kháng Mọi Tác Động UV Defender SPF 50+ PA++++ Loreal Paris 50ml</t>
+          <t>Sữa tắm gội nam 3in1 RHYS MAN hương nước hoa Rhys Legend 350ml</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>₫324.000</t>
+          <t>₫179.000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>600k+</t>
+          <t>80k+</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/5fjcdPtZpu</t>
+          <t>https://s.shopee.vn/7po7DOlKRP</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261h-ml7coobou03z74.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml203589pjic6d.webp</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>shopee_8143545820</t>
+          <t>shopee_14287246784</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>87b7f044207052396d1689bb20abde09</t>
+          <t>63f7c6799abbac79b6d96b78830cd478</t>
         </is>
       </c>
     </row>
@@ -674,22 +694,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bộ gội xả dưỡng tóc suôn mượt cao cấp L'Oreal Paris Extraordinary Oil Smooth 440ml x2</t>
+          <t>Máy sấy tóc mini CWell gấp gọn 2 chiều nóng lạnh C01HD, công suất 1200W, ánh sáng xanh bảo vệ tóc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>₫449.000</t>
+          <t>₫129.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>80k+</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -699,22 +719,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/5q32piswUx</t>
+          <t>https://s.shopee.vn/5VQCR6uDAr</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-825zn-ml7col8wojcy4d.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4oa728rqpv69.webp</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>shopee_15462059521</t>
+          <t>shopee_17095132248</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>c1748aa99dd701cb08a5a55b8fd4462a</t>
+          <t>af9e0ef416094e5f465809251dc4d2b4</t>
         </is>
       </c>
     </row>
@@ -726,22 +746,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bộ 2 nước tẩy trang đa năng 3in1 tươi mát L'Oreal Paris (xanh dương nhạt) 400ml</t>
+          <t>Máy sấy tóc CWell 1800W gập gọn 2 chiều nóng lạnh, 3 chế độ nhiệt, ánh sáng xanh- BẢN NÂNG CẤP C05HD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>₫399.000</t>
+          <t>₫199.000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>200k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -751,22 +771,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7KrqcTnESG</t>
+          <t>https://s.shopee.vn/6pva1Yp8TF</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261p-ml7cop6p416r1b.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4o9wjg24n606.webp</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>shopee_3854824846</t>
+          <t>shopee_22243977722</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>8f6c386f1b6a2fe1a16310c4ea4b5337</t>
+          <t>d2981accec56e74b88b5eca6a27190fe</t>
         </is>
       </c>
     </row>
@@ -830,47 +850,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Serum Glycolic Melasyl 8% [Melasyl+Glycolic+Niacinamide] dưỡng sáng da, mờ thâm mụn &amp; nám Loreal Paris 30ml</t>
+          <t>Dr Flash Máy Sấy Tóc 1 tỷ ion âm，Công suất 2800w, sấy khô nhanh/chăm sóc tóc - Màu đen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>₫409.000</t>
+          <t>₫370.000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>200k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7fUh15lxmM</t>
+          <t>https://s.shopee.vn/3Vf83R1pEf</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-82610-ml7colg58vt06a.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mhulhu41gge803.webp</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>shopee_15118600010</t>
+          <t>shopee_24079867848</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>bcd5f2abd45e412293f2cbfb8be983fa</t>
+          <t>229f7695c2ff57bd946bdb24c90dbe3b</t>
         </is>
       </c>
     </row>
@@ -882,47 +902,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sữa tắm gội nam 3in1 RHYS MAN hương nước hoa Rhys Legend 350ml</t>
+          <t>Bọt vệ sinh nam giới Oniiz Dung dịch tạo bọt hương nước hoa 100ml</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>₫179.000</t>
+          <t>₫125.000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80k+</t>
+          <t>400k+</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7po7DOlKRP</t>
+          <t>https://s.shopee.vn/3qHyS30YYl</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml203589pjic6d.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mborpnoc4rjmd8.webp</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>shopee_14287246784</t>
+          <t>shopee_4293068799</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>63f7c6799abbac79b6d96b78830cd478</t>
+          <t>12f80bd738cce54615d31881f3974c58</t>
         </is>
       </c>
     </row>
@@ -934,47 +954,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Son Tint Romand Căng Bóng The Juicy Lasting Tint ThegioiSkinfood</t>
+          <t>Bộ gội xả dưỡng tóc suôn mượt cao cấp L'Oreal Paris Extraordinary Oil Smooth 440ml x2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>₫179.000</t>
+          <t>₫449.000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>200k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/6fc9pFploC</t>
+          <t>https://s.shopee.vn/5q32piswUx</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml2deklva96udc.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-825zn-ml7col8wojcy4d.webp</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>shopee_13465171355</t>
+          <t>shopee_15462059521</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2a91bcfae0544188d25925ae47587f1b</t>
+          <t>c1748aa99dd701cb08a5a55b8fd4462a</t>
         </is>
       </c>
     </row>
@@ -986,47 +1006,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Máy sấy tóc CWell 1800W gập gọn 2 chiều nóng lạnh, 3 chế độ nhiệt, ánh sáng xanh- BẢN NÂNG CẤP C05HD</t>
+          <t>Nước tẩy trang bí đao The Cocoon Vietnam 500ml thuần chay cho da dầu mụn</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>₫199.000</t>
+          <t>₫240.000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>60k+</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/6pva1Yp8TF</t>
+          <t>https://s.shopee.vn/2g613u4zvY</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4o9wjg24n606.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mkqtedh7vgg624.webp</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>shopee_22243977722</t>
+          <t>shopee_22446628559</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>d2981accec56e74b88b5eca6a27190fe</t>
+          <t>89a14506cb4084ff9a928c68fea6fbab</t>
         </is>
       </c>
     </row>
@@ -1038,42 +1058,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tẩy da chết Cocoon Chiết xuất cà phê Đắk Lắk, cấp ẩm cho da, giúp da mềm mịn- Tẩy Da Chết cho mặt, cho body</t>
+          <t>[AMINO MICELLAR MỚI] Nước tẩy trang làm sạch sâu, loại bỏ bụi bẩn &amp; trang điểm 3-in-1 L'Oreal Paris Micellar Water 400ml</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>₫150.000</t>
+          <t>₫209.000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>300k+</t>
+          <t>2tr+</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/70F0DroV8I</t>
+          <t>https://s.shopee.vn/5L6mEnuqVo</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m3khvmh5tc4oc4.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261o-ml7cor6c1amc45.webp</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>shopee_26608010471</t>
+          <t>shopee_591989399</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>c8818b14cff1bcd05d53f26d222295b5</t>
+          <t>fb6dea9f222e9cb46c2deae643f596a8</t>
         </is>
       </c>
     </row>
@@ -1085,47 +1110,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sữa tắm gội nam hương nước hoa 3 in 1 RHYS MAN Rhys Legend 350ml</t>
+          <t>[CHỐNG NẮNG WATERGEL MỚI] Chống Nắng Phổ Rộng Thoáng Da, Kháng Mọi Tác Động UV Defender SPF 50+ PA++++ Loreal Paris 50ml</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>₫179.000</t>
+          <t>₫324.000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>600k+</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7AYQQAnrnL</t>
+          <t>https://s.shopee.vn/5fjcdPtZpu</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1zojxuyubn21.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261h-ml7coobou03z74.webp</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>shopee_14582887112</t>
+          <t>shopee_8143545820</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>d1f765685784261d11f47517d42ec532</t>
+          <t>87b7f044207052396d1689bb20abde09</t>
         </is>
       </c>
     </row>
@@ -1137,47 +1162,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>kem nền Mistine kem lót 30g 36H Kiềm dầu không trôi</t>
+          <t>Serum Glycolic Melasyl 8% [Melasyl+Glycolic+Niacinamide] dưỡng sáng da, mờ thâm mụn &amp; nám Loreal Paris 30ml</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>₫198.000</t>
+          <t>₫409.000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>200k+</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3LLhr82SZc</t>
+          <t>https://s.shopee.vn/7fUh15lxmM</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/cn-11134207-820l4-mfthe25b37k8bc.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-82610-ml7colg58vt06a.webp</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>shopee_18553714799</t>
+          <t>shopee_15118600010</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>cdfa043e8d1209dbd10cfd61b94b65ed</t>
+          <t>bcd5f2abd45e412293f2cbfb8be983fa</t>
         </is>
       </c>
     </row>
@@ -1189,47 +1214,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dr Flash Máy Sấy Tóc 1 tỷ ion âm，Công suất 2800w, sấy khô nhanh/chăm sóc tóc - Màu đen</t>
+          <t>Bộ 2 nước tẩy trang đa năng 3in1 tươi mát L'Oreal Paris (xanh dương nhạt) 400ml</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>₫370.000</t>
+          <t>₫399.000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>200k+</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3Vf83R1pEf</t>
+          <t>https://s.shopee.vn/7KrqcTnESG</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mhulhu41gge803.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261p-ml7cop6p416r1b.webp</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>shopee_24079867848</t>
+          <t>shopee_3854824846</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>229f7695c2ff57bd946bdb24c90dbe3b</t>
+          <t>8f6c386f1b6a2fe1a16310c4ea4b5337</t>
         </is>
       </c>
     </row>
@@ -1241,22 +1266,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sữa rửa mặt dưỡng ẩm tối ưu Hada Labo Advanced Nourish Cleanser 80g</t>
+          <t>Dầu gội bồ kết - bưởi, dầu gội thảo dược thuần chay hỗ trợ kích mọc tóc Giọt Lành 500ml</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>₫77.000</t>
+          <t>₫185.000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>400k+</t>
+          <t>200k+</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1266,22 +1291,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3fyYFk1Bti</t>
+          <t>https://s.shopee.vn/3B2Hep35uh</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/1f62fd9f67b213be415478d43b9e42bf.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mj9a612806bn7c.webp</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>shopee_1566936005</t>
+          <t>shopee_6171847320</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>849635b53a2e6cd7548a060245ae5721</t>
+          <t>23e2b776a866067d88e820cd4fcdc53f</t>
         </is>
       </c>
     </row>
@@ -1293,17 +1318,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bọt vệ sinh nam giới Oniiz Dung dịch tạo bọt hương nước hoa 100ml</t>
+          <t>Sữa rửa mặt dưỡng ẩm tối ưu Hada Labo Advanced Nourish Cleanser 80g</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>₫125.000</t>
+          <t>₫77.000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1313,27 +1338,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3qHyS30YYl</t>
+          <t>https://s.shopee.vn/3fyYFk1Bti</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mborpnoc4rjmd8.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/1f62fd9f67b213be415478d43b9e42bf.webp</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>shopee_4293068799</t>
+          <t>shopee_1566936005</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>12f80bd738cce54615d31881f3974c58</t>
+          <t>849635b53a2e6cd7548a060245ae5721</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1370,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nước tẩy trang bí đao The Cocoon Vietnam 500ml thuần chay cho da dầu mụn</t>
+          <t>Sữa rửa mặt foaming giúp làm sạch sâu và dưỡng ẩm dịu nhẹ dành cho da dầu - CeraVe Foaming Facial Cleanser 473ML</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>₫240.000</t>
+          <t>₫465.000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>60k+</t>
+          <t>400k+</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/2g613u4zvY</t>
+          <t>https://s.shopee.vn/30irSW3jFe</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mkqtedh7vgg624.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-82633-ml58b3djcdu28c.webp</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>shopee_22446628559</t>
+          <t>shopee_18832327227</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>89a14506cb4084ff9a928c68fea6fbab</t>
+          <t>1f80f0b69e0c2a99f7d20c5f0d641d5e</t>
         </is>
       </c>
     </row>
@@ -1397,42 +1422,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Máy uốn tóc tự động, trục 32mm tạo kiểu tóc, chất liệu gốm cao cấp ion âm, phiên bản cao cấp - Lù Store</t>
+          <t>Tẩy da chết Cocoon Chiết xuất cà phê Đắk Lắk, cấp ẩm cho da, giúp da mềm mịn- Tẩy Da Chết cho mặt, cho body</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>₫220.000</t>
+          <t>₫150.000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90k+</t>
+          <t>300k+</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/2qPRGD4Mab</t>
+          <t>https://s.shopee.vn/70F0DroV8I</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7r98o-lzrc9onl0fv13c.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m3khvmh5tc4oc4.webp</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>shopee_28957614824</t>
+          <t>shopee_26608010471</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>b016cf329549746b58506b1d6319875d</t>
+          <t>c8818b14cff1bcd05d53f26d222295b5</t>
         </is>
       </c>
     </row>
@@ -1444,99 +1469,74 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sữa rửa mặt foaming giúp làm sạch sâu và dưỡng ẩm dịu nhẹ dành cho da dầu - CeraVe Foaming Facial Cleanser 473ML</t>
+          <t>Máy uốn tóc tự động, trục 32mm tạo kiểu tóc, chất liệu gốm cao cấp ion âm, phiên bản cao cấp - Lù Store</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>₫465.000</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5%</t>
+          <t>₫220.000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>400k+</t>
+          <t>90k+</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/30irSW3jFe</t>
+          <t>https://s.shopee.vn/2qPRGD4Mab</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-82633-ml58b3djcdu28c.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7r98o-lzrc9onl0fv13c.webp</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>shopee_18832327227</t>
+          <t>shopee_28957614824</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1f80f0b69e0c2a99f7d20c5f0d641d5e</t>
+          <t>b016cf329549746b58506b1d6319875d</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shopee</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dầu gội bồ kết - bưởi, dầu gội thảo dược thuần chay hỗ trợ kích mọc tóc Giọt Lành 500ml</t>
+          <t>Tên mới</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>₫185.000</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>200k+</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>9,5%</t>
+          <t>Liên hệ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3B2Hep35uh</t>
+          <t>https://</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mj9a612806bn7c.webp</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>shopee_6171847320</t>
+          <t>https://via.placeholder.com/400x300?text=No+Image</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>23e2b776a866067d88e820cd4fcdc53f</t>
+          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -486,17 +486,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kem nền Mistine kem lót 30g 36H Kiềm dầu không trôi</t>
+          <t>Sữa tắm gội nam hương nước hoa 3 in 1 RHYS MAN Rhys Legend 350ml</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>₫198.000</t>
+          <t>₫179.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,22 +511,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3LLhr82SZc</t>
+          <t>https://s.shopee.vn/7AYQQAnrnL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/cn-11134207-820l4-mfthe25b37k8bc.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1zojxuyubn21.webp</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>shopee_18553714799</t>
+          <t>shopee_14582887112</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>cdfa043e8d1209dbd10cfd61b94b65ed</t>
+          <t>d1f765685784261d11f47517d42ec532</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sữa tắm gội nam hương nước hoa 3 in 1 RHYS MAN Rhys Legend 350ml</t>
+          <t>Son Tint Romand Căng Bóng The Juicy Lasting Tint ThegioiSkinfood</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -548,37 +548,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>200k+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7AYQQAnrnL</t>
+          <t>https://s.shopee.vn/6fc9pFploC</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1zojxuyubn21.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml2deklva96udc.webp</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>shopee_14582887112</t>
+          <t>shopee_13465171355</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>d1f765685784261d11f47517d42ec532</t>
+          <t>2a91bcfae0544188d25925ae47587f1b</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Son Tint Romand Căng Bóng The Juicy Lasting Tint ThegioiSkinfood</t>
+          <t>Sữa tắm gội nam 3in1 RHYS MAN hương nước hoa Rhys Legend 350ml</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -605,32 +605,32 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>200k+</t>
+          <t>80k+</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/6fc9pFploC</t>
+          <t>https://s.shopee.vn/7po7DOlKRP</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml2deklva96udc.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml203589pjic6d.webp</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>shopee_13465171355</t>
+          <t>shopee_14287246784</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2a91bcfae0544188d25925ae47587f1b</t>
+          <t>63f7c6799abbac79b6d96b78830cd478</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sữa tắm gội nam 3in1 RHYS MAN hương nước hoa Rhys Legend 350ml</t>
+          <t>Máy sấy tóc mini CWell gấp gọn 2 chiều nóng lạnh C01HD, công suất 1200W, ánh sáng xanh bảo vệ tóc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>₫179.000</t>
+          <t>₫129.000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -662,27 +662,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7po7DOlKRP</t>
+          <t>https://s.shopee.vn/5VQCR6uDAr</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml203589pjic6d.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4oa728rqpv69.webp</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>shopee_14287246784</t>
+          <t>shopee_17095132248</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>63f7c6799abbac79b6d96b78830cd478</t>
+          <t>af9e0ef416094e5f465809251dc4d2b4</t>
         </is>
       </c>
     </row>
@@ -694,22 +694,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Máy sấy tóc mini CWell gấp gọn 2 chiều nóng lạnh C01HD, công suất 1200W, ánh sáng xanh bảo vệ tóc</t>
+          <t>Máy sấy tóc CWell 1800W gập gọn 2 chiều nóng lạnh, 3 chế độ nhiệt, ánh sáng xanh- BẢN NÂNG CẤP C05HD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>₫129.000</t>
+          <t>₫199.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -719,22 +719,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/5VQCR6uDAr</t>
+          <t>https://s.shopee.vn/6pva1Yp8TF</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4oa728rqpv69.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4o9wjg24n606.webp</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>shopee_17095132248</t>
+          <t>shopee_22243977722</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>af9e0ef416094e5f465809251dc4d2b4</t>
+          <t>d2981accec56e74b88b5eca6a27190fe</t>
         </is>
       </c>
     </row>
@@ -746,47 +746,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Máy sấy tóc CWell 1800W gập gọn 2 chiều nóng lạnh, 3 chế độ nhiệt, ánh sáng xanh- BẢN NÂNG CẤP C05HD</t>
+          <t>Máy Sấy Tóc Ion Âm 2 Chiều Nóng Lạnh Chăm Sóc Tóc Tốc Độ, Có 3 Chế Độ Sấy, Tặng Kèm Đầu Sấy Tạo Kiểu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>₫199.000</t>
+          <t>₫379.000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>200k+</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/6pva1Yp8TF</t>
+          <t>https://s.shopee.vn/7VBGommb7J</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4o9wjg24n606.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1u5txjjhtzd5.webp</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>shopee_22243977722</t>
+          <t>shopee_25306110681</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>d2981accec56e74b88b5eca6a27190fe</t>
+          <t>2846f4afc78b36d54b453f1f41279d83</t>
         </is>
       </c>
     </row>
@@ -798,47 +798,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Máy Sấy Tóc Ion Âm 2 Chiều Nóng Lạnh Chăm Sóc Tóc Tốc Độ, Có 3 Chế Độ Sấy, Tặng Kèm Đầu Sấy Tạo Kiểu</t>
+          <t>Dr Flash Máy Sấy Tóc 1 tỷ ion âm，Công suất 2800w, sấy khô nhanh/chăm sóc tóc - Màu đen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>₫379.000</t>
+          <t>₫370.000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>200k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7VBGommb7J</t>
+          <t>https://s.shopee.vn/3Vf83R1pEf</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1u5txjjhtzd5.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mhulhu41gge803.webp</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>shopee_25306110681</t>
+          <t>shopee_24079867848</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2846f4afc78b36d54b453f1f41279d83</t>
+          <t>229f7695c2ff57bd946bdb24c90dbe3b</t>
         </is>
       </c>
     </row>
@@ -850,47 +850,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr Flash Máy Sấy Tóc 1 tỷ ion âm，Công suất 2800w, sấy khô nhanh/chăm sóc tóc - Màu đen</t>
+          <t>Bọt vệ sinh nam giới Oniiz Dung dịch tạo bọt hương nước hoa 100ml</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>₫370.000</t>
+          <t>₫125.000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>400k+</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3Vf83R1pEf</t>
+          <t>https://s.shopee.vn/3qHyS30YYl</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mhulhu41gge803.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mborpnoc4rjmd8.webp</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>shopee_24079867848</t>
+          <t>shopee_4293068799</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>229f7695c2ff57bd946bdb24c90dbe3b</t>
+          <t>12f80bd738cce54615d31881f3974c58</t>
         </is>
       </c>
     </row>
@@ -902,47 +902,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bọt vệ sinh nam giới Oniiz Dung dịch tạo bọt hương nước hoa 100ml</t>
+          <t>Bộ gội xả dưỡng tóc suôn mượt cao cấp L'Oreal Paris Extraordinary Oil Smooth 440ml x2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>₫125.000</t>
+          <t>₫449.000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>400k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3qHyS30YYl</t>
+          <t>https://s.shopee.vn/5q32piswUx</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mborpnoc4rjmd8.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-825zn-ml7col8wojcy4d.webp</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>shopee_4293068799</t>
+          <t>shopee_15462059521</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12f80bd738cce54615d31881f3974c58</t>
+          <t>c1748aa99dd701cb08a5a55b8fd4462a</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bộ gội xả dưỡng tóc suôn mượt cao cấp L'Oreal Paris Extraordinary Oil Smooth 440ml x2</t>
+          <t>Nước tẩy trang bí đao The Cocoon Vietnam 500ml thuần chay cho da dầu mụn</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>₫449.000</t>
+          <t>₫240.000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -969,32 +969,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>60k+</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/5q32piswUx</t>
+          <t>https://s.shopee.vn/2g613u4zvY</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-825zn-ml7col8wojcy4d.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mkqtedh7vgg624.webp</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>shopee_15462059521</t>
+          <t>shopee_22446628559</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>c1748aa99dd701cb08a5a55b8fd4462a</t>
+          <t>89a14506cb4084ff9a928c68fea6fbab</t>
         </is>
       </c>
     </row>
@@ -1006,47 +1006,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nước tẩy trang bí đao The Cocoon Vietnam 500ml thuần chay cho da dầu mụn</t>
+          <t>[AMINO MICELLAR MỚI] Nước tẩy trang làm sạch sâu, loại bỏ bụi bẩn &amp; trang điểm 3-in-1 L'Oreal Paris Micellar Water 400ml</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>₫240.000</t>
+          <t>₫209.000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>60k+</t>
+          <t>2tr+</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/2g613u4zvY</t>
+          <t>https://s.shopee.vn/5L6mEnuqVo</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mkqtedh7vgg624.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261o-ml7cor6c1amc45.webp</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>shopee_22446628559</t>
+          <t>shopee_591989399</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>89a14506cb4084ff9a928c68fea6fbab</t>
+          <t>fb6dea9f222e9cb46c2deae643f596a8</t>
         </is>
       </c>
     </row>
@@ -1058,12 +1058,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[AMINO MICELLAR MỚI] Nước tẩy trang làm sạch sâu, loại bỏ bụi bẩn &amp; trang điểm 3-in-1 L'Oreal Paris Micellar Water 400ml</t>
+          <t>[CHỐNG NẮNG WATERGEL MỚI] Chống Nắng Phổ Rộng Thoáng Da, Kháng Mọi Tác Động UV Defender SPF 50+ PA++++ Loreal Paris 50ml</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>₫209.000</t>
+          <t>₫324.000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2tr+</t>
+          <t>600k+</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1083,22 +1083,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/5L6mEnuqVo</t>
+          <t>https://s.shopee.vn/5fjcdPtZpu</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261o-ml7cor6c1amc45.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261h-ml7coobou03z74.webp</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>shopee_591989399</t>
+          <t>shopee_8143545820</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>fb6dea9f222e9cb46c2deae643f596a8</t>
+          <t>87b7f044207052396d1689bb20abde09</t>
         </is>
       </c>
     </row>
@@ -1110,12 +1110,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[CHỐNG NẮNG WATERGEL MỚI] Chống Nắng Phổ Rộng Thoáng Da, Kháng Mọi Tác Động UV Defender SPF 50+ PA++++ Loreal Paris 50ml</t>
+          <t>Serum Glycolic Melasyl 8% [Melasyl+Glycolic+Niacinamide] dưỡng sáng da, mờ thâm mụn &amp; nám Loreal Paris 30ml</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>₫324.000</t>
+          <t>₫409.000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>600k+</t>
+          <t>200k+</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/5fjcdPtZpu</t>
+          <t>https://s.shopee.vn/7fUh15lxmM</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261h-ml7coobou03z74.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-82610-ml7colg58vt06a.webp</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>shopee_8143545820</t>
+          <t>shopee_15118600010</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>87b7f044207052396d1689bb20abde09</t>
+          <t>bcd5f2abd45e412293f2cbfb8be983fa</t>
         </is>
       </c>
     </row>
@@ -1162,17 +1162,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Serum Glycolic Melasyl 8% [Melasyl+Glycolic+Niacinamide] dưỡng sáng da, mờ thâm mụn &amp; nám Loreal Paris 30ml</t>
+          <t>Bộ 2 nước tẩy trang đa năng 3in1 tươi mát L'Oreal Paris (xanh dương nhạt) 400ml</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>₫409.000</t>
+          <t>₫399.000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1187,22 +1187,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7fUh15lxmM</t>
+          <t>https://s.shopee.vn/7KrqcTnESG</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-82610-ml7colg58vt06a.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261p-ml7cop6p416r1b.webp</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>shopee_15118600010</t>
+          <t>shopee_3854824846</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>bcd5f2abd45e412293f2cbfb8be983fa</t>
+          <t>8f6c386f1b6a2fe1a16310c4ea4b5337</t>
         </is>
       </c>
     </row>
@@ -1214,17 +1214,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bộ 2 nước tẩy trang đa năng 3in1 tươi mát L'Oreal Paris (xanh dương nhạt) 400ml</t>
+          <t>Dầu gội bồ kết - bưởi, dầu gội thảo dược thuần chay hỗ trợ kích mọc tóc Giọt Lành 500ml</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>₫399.000</t>
+          <t>₫185.000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1239,22 +1239,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7KrqcTnESG</t>
+          <t>https://s.shopee.vn/3B2Hep35uh</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261p-ml7cop6p416r1b.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mj9a612806bn7c.webp</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>shopee_3854824846</t>
+          <t>shopee_6171847320</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>8f6c386f1b6a2fe1a16310c4ea4b5337</t>
+          <t>23e2b776a866067d88e820cd4fcdc53f</t>
         </is>
       </c>
     </row>
@@ -1266,22 +1266,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dầu gội bồ kết - bưởi, dầu gội thảo dược thuần chay hỗ trợ kích mọc tóc Giọt Lành 500ml</t>
+          <t>Sữa rửa mặt dưỡng ẩm tối ưu Hada Labo Advanced Nourish Cleanser 80g</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>₫185.000</t>
+          <t>₫77.000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>200k+</t>
+          <t>400k+</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1291,22 +1291,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3B2Hep35uh</t>
+          <t>https://s.shopee.vn/3fyYFk1Bti</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mj9a612806bn7c.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/1f62fd9f67b213be415478d43b9e42bf.webp</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>shopee_6171847320</t>
+          <t>shopee_1566936005</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>23e2b776a866067d88e820cd4fcdc53f</t>
+          <t>849635b53a2e6cd7548a060245ae5721</t>
         </is>
       </c>
     </row>
@@ -1318,12 +1318,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sữa rửa mặt dưỡng ẩm tối ưu Hada Labo Advanced Nourish Cleanser 80g</t>
+          <t>kem nền Mistine kem lót 30g 36H Kiềm dầu không trôi</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>₫77.000</t>
+          <t>₫198.000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1333,32 +1333,32 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>400k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3fyYFk1Bti</t>
+          <t>https://s.shopee.vn/3LLhr82SZc</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/1f62fd9f67b213be415478d43b9e42bf.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/cn-11134207-820l4-mfthe25b37k8bc.webp</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>shopee_1566936005</t>
+          <t>shopee_18553714799</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>849635b53a2e6cd7548a060245ae5721</t>
+          <t>cdfa043e8d1209dbd10cfd61b94b65ed</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sữa tắm gội nam hương nước hoa 3 in 1 RHYS MAN Rhys Legend 350ml</t>
+          <t>Son Tint Romand Căng Bóng The Juicy Lasting Tint ThegioiSkinfood</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -496,37 +496,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>200k+</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7AYQQAnrnL</t>
+          <t>https://s.shopee.vn/6fc9pFploC</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1zojxuyubn21.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml2deklva96udc.webp</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>shopee_14582887112</t>
+          <t>shopee_13465171355</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>d1f765685784261d11f47517d42ec532</t>
+          <t>2a91bcfae0544188d25925ae47587f1b</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Son Tint Romand Căng Bóng The Juicy Lasting Tint ThegioiSkinfood</t>
+          <t>Sữa tắm gội nam 3in1 RHYS MAN hương nước hoa Rhys Legend 350ml</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -553,32 +553,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>200k+</t>
+          <t>80k+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/6fc9pFploC</t>
+          <t>https://s.shopee.vn/7po7DOlKRP</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml2deklva96udc.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml203589pjic6d.webp</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>shopee_13465171355</t>
+          <t>shopee_14287246784</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2a91bcfae0544188d25925ae47587f1b</t>
+          <t>63f7c6799abbac79b6d96b78830cd478</t>
         </is>
       </c>
     </row>
@@ -590,17 +590,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sữa tắm gội nam 3in1 RHYS MAN hương nước hoa Rhys Legend 350ml</t>
+          <t>Máy sấy tóc mini CWell gấp gọn 2 chiều nóng lạnh C01HD, công suất 1200W, ánh sáng xanh bảo vệ tóc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>₫179.000</t>
+          <t>₫129.000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -610,27 +610,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7po7DOlKRP</t>
+          <t>https://s.shopee.vn/5VQCR6uDAr</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml203589pjic6d.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4oa728rqpv69.webp</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>shopee_14287246784</t>
+          <t>shopee_17095132248</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>63f7c6799abbac79b6d96b78830cd478</t>
+          <t>af9e0ef416094e5f465809251dc4d2b4</t>
         </is>
       </c>
     </row>
@@ -642,22 +642,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Máy sấy tóc mini CWell gấp gọn 2 chiều nóng lạnh C01HD, công suất 1200W, ánh sáng xanh bảo vệ tóc</t>
+          <t>Máy sấy tóc CWell 1800W gập gọn 2 chiều nóng lạnh, 3 chế độ nhiệt, ánh sáng xanh- BẢN NÂNG CẤP C05HD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>₫129.000</t>
+          <t>₫199.000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -667,22 +667,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/5VQCR6uDAr</t>
+          <t>https://s.shopee.vn/6pva1Yp8TF</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4oa728rqpv69.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4o9wjg24n606.webp</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>shopee_17095132248</t>
+          <t>shopee_22243977722</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>af9e0ef416094e5f465809251dc4d2b4</t>
+          <t>d2981accec56e74b88b5eca6a27190fe</t>
         </is>
       </c>
     </row>
@@ -694,47 +694,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Máy sấy tóc CWell 1800W gập gọn 2 chiều nóng lạnh, 3 chế độ nhiệt, ánh sáng xanh- BẢN NÂNG CẤP C05HD</t>
+          <t>Máy Sấy Tóc Ion Âm 2 Chiều Nóng Lạnh Chăm Sóc Tóc Tốc Độ, Có 3 Chế Độ Sấy, Tặng Kèm Đầu Sấy Tạo Kiểu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>₫199.000</t>
+          <t>₫379.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>200k+</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/6pva1Yp8TF</t>
+          <t>https://s.shopee.vn/7VBGommb7J</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mk4o9wjg24n606.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1u5txjjhtzd5.webp</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>shopee_22243977722</t>
+          <t>shopee_25306110681</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>d2981accec56e74b88b5eca6a27190fe</t>
+          <t>2846f4afc78b36d54b453f1f41279d83</t>
         </is>
       </c>
     </row>
@@ -746,47 +746,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Máy Sấy Tóc Ion Âm 2 Chiều Nóng Lạnh Chăm Sóc Tóc Tốc Độ, Có 3 Chế Độ Sấy, Tặng Kèm Đầu Sấy Tạo Kiểu</t>
+          <t>Dr Flash Máy Sấy Tóc 1 tỷ ion âm，Công suất 2800w, sấy khô nhanh/chăm sóc tóc - Màu đen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>₫379.000</t>
+          <t>₫370.000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>200k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7VBGommb7J</t>
+          <t>https://s.shopee.vn/3Vf83R1pEf</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1u5txjjhtzd5.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mhulhu41gge803.webp</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>shopee_25306110681</t>
+          <t>shopee_24079867848</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2846f4afc78b36d54b453f1f41279d83</t>
+          <t>229f7695c2ff57bd946bdb24c90dbe3b</t>
         </is>
       </c>
     </row>
@@ -798,47 +798,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr Flash Máy Sấy Tóc 1 tỷ ion âm，Công suất 2800w, sấy khô nhanh/chăm sóc tóc - Màu đen</t>
+          <t>Bọt vệ sinh nam giới Oniiz Dung dịch tạo bọt hương nước hoa 100ml</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>₫370.000</t>
+          <t>₫125.000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>400k+</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3Vf83R1pEf</t>
+          <t>https://s.shopee.vn/3qHyS30YYl</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mhulhu41gge803.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mborpnoc4rjmd8.webp</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>shopee_24079867848</t>
+          <t>shopee_4293068799</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>229f7695c2ff57bd946bdb24c90dbe3b</t>
+          <t>12f80bd738cce54615d31881f3974c58</t>
         </is>
       </c>
     </row>
@@ -850,47 +850,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bọt vệ sinh nam giới Oniiz Dung dịch tạo bọt hương nước hoa 100ml</t>
+          <t>Bộ gội xả dưỡng tóc suôn mượt cao cấp L'Oreal Paris Extraordinary Oil Smooth 440ml x2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>₫125.000</t>
+          <t>₫449.000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>400k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3qHyS30YYl</t>
+          <t>https://s.shopee.vn/5q32piswUx</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mborpnoc4rjmd8.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-825zn-ml7col8wojcy4d.webp</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>shopee_4293068799</t>
+          <t>shopee_15462059521</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12f80bd738cce54615d31881f3974c58</t>
+          <t>c1748aa99dd701cb08a5a55b8fd4462a</t>
         </is>
       </c>
     </row>
@@ -902,12 +902,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bộ gội xả dưỡng tóc suôn mượt cao cấp L'Oreal Paris Extraordinary Oil Smooth 440ml x2</t>
+          <t>Nước tẩy trang bí đao The Cocoon Vietnam 500ml thuần chay cho da dầu mụn</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>₫449.000</t>
+          <t>₫240.000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>60k+</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/5q32piswUx</t>
+          <t>https://s.shopee.vn/2g613u4zvY</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-825zn-ml7col8wojcy4d.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mkqtedh7vgg624.webp</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>shopee_15462059521</t>
+          <t>shopee_22446628559</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>c1748aa99dd701cb08a5a55b8fd4462a</t>
+          <t>89a14506cb4084ff9a928c68fea6fbab</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nước tẩy trang bí đao The Cocoon Vietnam 500ml thuần chay cho da dầu mụn</t>
+          <t>[AMINO MICELLAR MỚI] Nước tẩy trang làm sạch sâu, loại bỏ bụi bẩn &amp; trang điểm 3-in-1 L'Oreal Paris Micellar Water 400ml</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>₫240.000</t>
+          <t>₫209.000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>60k+</t>
+          <t>2tr+</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/2g613u4zvY</t>
+          <t>https://s.shopee.vn/5L6mEnuqVo</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-mkqtedh7vgg624.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261o-ml7cor6c1amc45.webp</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>shopee_22446628559</t>
+          <t>shopee_591989399</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>89a14506cb4084ff9a928c68fea6fbab</t>
+          <t>fb6dea9f222e9cb46c2deae643f596a8</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[AMINO MICELLAR MỚI] Nước tẩy trang làm sạch sâu, loại bỏ bụi bẩn &amp; trang điểm 3-in-1 L'Oreal Paris Micellar Water 400ml</t>
+          <t>[CHỐNG NẮNG WATERGEL MỚI] Chống Nắng Phổ Rộng Thoáng Da, Kháng Mọi Tác Động UV Defender SPF 50+ PA++++ Loreal Paris 50ml</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>₫209.000</t>
+          <t>₫324.000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2tr+</t>
+          <t>600k+</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1031,22 +1031,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/5L6mEnuqVo</t>
+          <t>https://s.shopee.vn/5fjcdPtZpu</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261o-ml7cor6c1amc45.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261h-ml7coobou03z74.webp</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>shopee_591989399</t>
+          <t>shopee_8143545820</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>fb6dea9f222e9cb46c2deae643f596a8</t>
+          <t>87b7f044207052396d1689bb20abde09</t>
         </is>
       </c>
     </row>
@@ -1058,12 +1058,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[CHỐNG NẮNG WATERGEL MỚI] Chống Nắng Phổ Rộng Thoáng Da, Kháng Mọi Tác Động UV Defender SPF 50+ PA++++ Loreal Paris 50ml</t>
+          <t>Serum Glycolic Melasyl 8% [Melasyl+Glycolic+Niacinamide] dưỡng sáng da, mờ thâm mụn &amp; nám Loreal Paris 30ml</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>₫324.000</t>
+          <t>₫409.000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>600k+</t>
+          <t>200k+</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1083,22 +1083,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/5fjcdPtZpu</t>
+          <t>https://s.shopee.vn/7fUh15lxmM</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261h-ml7coobou03z74.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-82610-ml7colg58vt06a.webp</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>shopee_8143545820</t>
+          <t>shopee_15118600010</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>87b7f044207052396d1689bb20abde09</t>
+          <t>bcd5f2abd45e412293f2cbfb8be983fa</t>
         </is>
       </c>
     </row>
@@ -1110,17 +1110,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Serum Glycolic Melasyl 8% [Melasyl+Glycolic+Niacinamide] dưỡng sáng da, mờ thâm mụn &amp; nám Loreal Paris 30ml</t>
+          <t>Bộ 2 nước tẩy trang đa năng 3in1 tươi mát L'Oreal Paris (xanh dương nhạt) 400ml</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>₫409.000</t>
+          <t>₫399.000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7fUh15lxmM</t>
+          <t>https://s.shopee.vn/7KrqcTnESG</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-82610-ml7colg58vt06a.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261p-ml7cop6p416r1b.webp</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>shopee_15118600010</t>
+          <t>shopee_3854824846</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>bcd5f2abd45e412293f2cbfb8be983fa</t>
+          <t>8f6c386f1b6a2fe1a16310c4ea4b5337</t>
         </is>
       </c>
     </row>
@@ -1162,17 +1162,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bộ 2 nước tẩy trang đa năng 3in1 tươi mát L'Oreal Paris (xanh dương nhạt) 400ml</t>
+          <t>Dầu gội bồ kết - bưởi, dầu gội thảo dược thuần chay hỗ trợ kích mọc tóc Giọt Lành 500ml</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>₫399.000</t>
+          <t>₫185.000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1187,22 +1187,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/7KrqcTnESG</t>
+          <t>https://s.shopee.vn/3B2Hep35uh</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-8261p-ml7cop6p416r1b.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mj9a612806bn7c.webp</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>shopee_3854824846</t>
+          <t>shopee_6171847320</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>8f6c386f1b6a2fe1a16310c4ea4b5337</t>
+          <t>23e2b776a866067d88e820cd4fcdc53f</t>
         </is>
       </c>
     </row>
@@ -1214,22 +1214,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dầu gội bồ kết - bưởi, dầu gội thảo dược thuần chay hỗ trợ kích mọc tóc Giọt Lành 500ml</t>
+          <t>Sữa rửa mặt dưỡng ẩm tối ưu Hada Labo Advanced Nourish Cleanser 80g</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>₫185.000</t>
+          <t>₫77.000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>200k+</t>
+          <t>400k+</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1239,22 +1239,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3B2Hep35uh</t>
+          <t>https://s.shopee.vn/3fyYFk1Bti</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mj9a612806bn7c.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/1f62fd9f67b213be415478d43b9e42bf.webp</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>shopee_6171847320</t>
+          <t>shopee_1566936005</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>23e2b776a866067d88e820cd4fcdc53f</t>
+          <t>849635b53a2e6cd7548a060245ae5721</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sữa rửa mặt dưỡng ẩm tối ưu Hada Labo Advanced Nourish Cleanser 80g</t>
+          <t>kem nền Mistine kem lót 30g 36H Kiềm dầu không trôi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>₫77.000</t>
+          <t>₫198.000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1281,32 +1281,32 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>400k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3fyYFk1Bti</t>
+          <t>https://s.shopee.vn/3LLhr82SZc</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/1f62fd9f67b213be415478d43b9e42bf.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/cn-11134207-820l4-mfthe25b37k8bc.webp</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>shopee_1566936005</t>
+          <t>shopee_18553714799</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>849635b53a2e6cd7548a060245ae5721</t>
+          <t>cdfa043e8d1209dbd10cfd61b94b65ed</t>
         </is>
       </c>
     </row>
@@ -1318,22 +1318,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>kem nền Mistine kem lót 30g 36H Kiềm dầu không trôi</t>
+          <t>Sữa rửa mặt foaming giúp làm sạch sâu và dưỡng ẩm dịu nhẹ dành cho da dầu - CeraVe Foaming Facial Cleanser 473ML</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>₫198.000</t>
+          <t>₫465.000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>400k+</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1343,22 +1343,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/3LLhr82SZc</t>
+          <t>https://s.shopee.vn/30irSW3jFe</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/cn-11134207-820l4-mfthe25b37k8bc.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-82633-ml58b3djcdu28c.webp</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>shopee_18553714799</t>
+          <t>shopee_18832327227</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>cdfa043e8d1209dbd10cfd61b94b65ed</t>
+          <t>1f80f0b69e0c2a99f7d20c5f0d641d5e</t>
         </is>
       </c>
     </row>
@@ -1370,12 +1370,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sữa rửa mặt foaming giúp làm sạch sâu và dưỡng ẩm dịu nhẹ dành cho da dầu - CeraVe Foaming Facial Cleanser 473ML</t>
+          <t>Sữa tắm gội nam hương nước hoa 3 in 1 RHYS MAN Rhys Legend 350ml</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>₫465.000</t>
+          <t>₫179.000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>400k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1395,22 +1395,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://s.shopee.vn/30irSW3jFe</t>
+          <t>https://s.shopee.vn/7AYQQAnrnL</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-82633-ml58b3djcdu28c.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1zojxuyubn21.webp</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>shopee_18832327227</t>
+          <t>shopee_14582887112</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1f80f0b69e0c2a99f7d20c5f0d641d5e</t>
+          <t>d1f765685784261d11f47517d42ec532</t>
         </is>
       </c>
     </row>
@@ -1505,38 +1505,6 @@
       <c r="K21" t="inlineStr">
         <is>
           <t>b016cf329549746b58506b1d6319875d</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Tên mới</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Liên hệ</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>https://via.placeholder.com/400x300?text=No+Image</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1508,6 +1508,43 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tên mới</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Liên hệ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://via.placeholder.com/400x300?text=No+Image</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1508,43 +1508,6 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Tên mới</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Liên hệ</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>https://via.placeholder.com/400x300?text=No+Image</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/products.xlsx
+++ b/products.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,58 +478,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Shopee</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Son Tint Romand Căng Bóng The Juicy Lasting Tint ThegioiSkinfood</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>₫179.000</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>200k+</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1,5%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://s.shopee.vn/6fc9pFploC</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml2deklva96udc.webp</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>shopee_13465171355</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2a91bcfae0544188d25925ae47587f1b</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,1066 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bảo hành 6 tháng Quạt mini GOOJODOQ 100 tốc độ gió có thể điều chỉnh màn hình kỹ thuật số cầm tay</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>₫349.000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>100k+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/25725120069?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7ras8-matn3i3v0zwhe4.webp</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>shopee_25725120069</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>28e1d811ecf966face09e18b5bffba7b</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Khăn giấy rút Top Gia GiaGia treo tường đa năng 1000 tờ 4 lớp tặng 3 móc treo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>₫95.001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>300k+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/26618832095?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-mjfd4lijsfetca.webp</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>shopee_26618832095</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>f55c1433b90f6b8c1e9900b58ef8cb42</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thùng 500 Khẩu Trang 5D Bông Sen Vàng Cái 3 Lớp</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>₫155.900</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>500k+</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/17895261815?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-midydsa2hbt2cf.webp</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>shopee_17895261815</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>94a11f0865aaa52d980fe1a9b291297f</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Quả Cầu Pha Lê Vũ Trụ Phát SángQuả Cầu Thủy Tinh Trang trí phòng ngủ Night Light Quà tặng sinh nhật cho phụ nữ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>₫47.000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30k+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/28910590009?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7ras8-m45t34ueqpb483.webp</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>shopee_28910590009</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>e30c5604675bf327647e53e6747701fd</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>【Tặng quà/Bảo hành nửa năm】GOOJODQ 4000 mAh Turbo Jet Mini Quạt Sạc Tốc Độ Cao Cầm Tay Di Động Gió Mạnh 100 Gear</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>₫129.000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40k+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/26358982961?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/cn-11134207-7ras8-mdqxom6hpf0nda.webp</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>shopee_26358982961</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>9572e25628b437624bc32ff2b914d9fd</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nước Giặt TopGia 3in1 Hương Lavender Dịu Nhẹ Làm Sạch Vết Bẩn, Lưu Hương 72h, Túi 2L</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>₫79.000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>100k+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/22061511007?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-81ztc-ml1gzgyor9c17f.webp</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>shopee_22061511007</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>dae86f891c21f32d26c6bc99f41e622e</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Máy Sấy Tóc Ion Âm 2 Chiều Nóng Lạnh Chăm Sóc Tóc Tốc Độ, Có 3 Chế Độ Sấy, Tặng Kèm Đầu Sấy Tạo Kiểu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>₫379.000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>200k+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/25306110681?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-81ztc-ml1u5txjjhtzd5.webp</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>shopee_25306110681</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2846f4afc78b36d54b453f1f41279d83</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Túi màng bọc thực phẩm chất liệu PE treo tường dạng rút TopGia, tiện lợi, có chun co dãn siêu dai</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>₫55.001</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60k+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/42802509340?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-mjfdb6kbxwxtfd.webp</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>shopee_42802509340</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>df936fde41eb3af914e5bbd5b0976369</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>【Tặng quà/Bảo hành nửa năm】GOOJODOQ Quạt Turbo Jet 4000 mAh có thể sạc lại, cầm tay, di động, gió mạnh, tốc độ cao 100 vòng/phút</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>₫250.000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>200k+</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/25176208160?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/cn-11134207-820l4-mkf025vn6vif61.webp</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>shopee_25176208160</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>c6fa98f5a92a9b7bd01ee0cd05612560</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hộp đựng tiền tiết kiệm thông minh nhiều mức lên kế hoạch tiện lợi thử thách 100 ngày Happy Birds</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>₫41.900</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5k+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10,5%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/43026328962?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-mi2wc95ro8hs62.webp</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>shopee_43026328962</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>da144bcc146001401b4f020650da7530</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[Set 100 Cái] Khẩu Trang 5D THỊNH PHÁT Đủ Màu Chính Hãng, 3 Lớp Kháng Khuẩn Dễ Thở, Chống Bụi Mịn</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>₫25.000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50k+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/20574771962?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7ras8-mavd3cx76yz03c.webp</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>shopee_20574771962</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>fbbdfe632b94bbe38e9c32a4a46f016e</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Máy sấy tóc mini CWell gấp gọn 2 chiều nóng lạnh C01HD, công suất 1200W, ánh sáng xanh bảo vệ tóc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>₫129.000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>300k+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/17095132248?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-81ztc-mk4oa728rqpv69.webp</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>shopee_17095132248</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>5a8fea61fe4726ff4b44c0a804b9976f</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cường lực chống nhìn trộm có khung tự dán cho iphone 11 pro max 12 pro max 13 promax x xr xs max 7 8 plus 14 15 16 17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>₫26.900</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1tr+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/20625866584?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7r98o-lxgcit0b6pjv9a.webp</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>shopee_20625866584</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1828f870c8980bc24b51074715538029</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Khăn giấy gấu trúc Top Gia Tiểu Hạ, treo tường 1000 tờ 4 lớp mềm mịn, treo tường tiện lợi, đa năng (Mẫu mã mới)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>₫95.001</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>200k+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/24122062625?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-mjfd54e7s9vlf0.webp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>shopee_24122062625</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>aea3e81b070cb6ce3fe4a34b389738a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>❌Hàng Có Sẵn❌ Dép Đi Trong Nhà , Nhà Tắm , Văn Phòng Dáng Lỗ Siêu Bền, Siêu Nhẹ Chống Trơn Trượt 1899 Lamon Store</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>₫27.028</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>300k+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/7881305878?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134211-7r98o-lnmfp8vk3ypm67.webp</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>shopee_7881305878</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>d37ecb0babc300bf8e8af836233ecb5a</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Chân váy công sở chữ A xẻ tà chất mango cao cấp siêu thanh lịch nhẹ nhàng cho nữ nhiều mẫu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>₫103.999</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20k+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/16738165846?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/e5f2db1ea87ac521e75f01e600c672bf.webp</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>shopee_16738165846</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>267df5437a377fca84df07c08285c2e0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Móc Treo Điện Thoại Ngựa Vàng May Mắn Phát Tài</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>₫16.660</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4k+</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/40077590941?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-mjcemwfm4c1v32.webp</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>shopee_40077590941</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>9e74ee3171de64f1b6a314644d8d3e2f</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nước Giặt Xả Top Gia 3in1 Đa Sắc Hương Lavender Dịu Nhẹ An Toàn Cho Da Lưu Hương 72H</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>₫129.001</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>100k+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/27004677807?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-81ztc-ml647eowf9xr13.webp</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>shopee_27004677807</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>6d4f188818ba3165aff89ea6926c38ae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Dép nữ xixitiao mềm nhẹ giá rẻ, dép đi trong nhà phong cách dễ thương mẫu mới [Lù store] - 8903</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>₫28.995</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>200k+</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/22646727739?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7qukw-lil5y6bhu28id8.webp</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>shopee_22646727739</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4fa8cabc0e6768795c4270c34eb8300d</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[Combo 100 Cái] Khẩu Trang 5D Tấn Phát,Thịnh Phát, Màu Trắng Đen,Chống Nắng,Chống Bụi,Chống Tia UV,Hàng Chính Hãng Cty.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>₫27.000</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>800k+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/21494586018?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://down-zl-vn.img.susercontent.com/sg-11134201-7rdx9-mbt0fczg5n6vf4.webp</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>shopee_21494586018</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>c4a5c00a4ea61650e1ba8b96afbfed74</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,6 +1538,43 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tên mới</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Liên hệ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://via.placeholder.com/400x300?text=No+Image</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,48 +486,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bảo hành 6 tháng Quạt mini GOOJODOQ 100 tốc độ gió có thể điều chỉnh màn hình kỹ thuật số cầm tay</t>
+          <t>Cường lực chống nhìn trộm có khung tự dán cho iphone 11 pro max 12 pro max 13 promax x xr xs max 7 8 plus 14 15 16 17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>₫349.000</t>
+          <t>₫26.900</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>1tr+</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/25725120069?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/20625866584?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7ras8-matn3i3v0zwhe4.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7r98o-lxgcit0b6pjv9a.webp</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>shopee_25725120069</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>shopee_20625866584</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>28e1d811ecf966face09e18b5bffba7b</t>
+          <t>1828f870c8980bc24b51074715538029</t>
         </is>
       </c>
     </row>
@@ -539,48 +538,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Khăn giấy rút Top Gia GiaGia treo tường đa năng 1000 tờ 4 lớp tặng 3 móc treo</t>
+          <t>Móc Treo Điện Thoại Ngựa Vàng May Mắn Phát Tài</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>₫95.001</t>
+          <t>₫16.660</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>300k+</t>
+          <t>4k+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/26618832095?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/40077590941?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-mjfd4lijsfetca.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-mjcemwfm4c1v32.webp</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>shopee_26618832095</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>shopee_40077590941</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>f55c1433b90f6b8c1e9900b58ef8cb42</t>
+          <t>9e74ee3171de64f1b6a314644d8d3e2f</t>
         </is>
       </c>
     </row>
@@ -592,48 +590,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thùng 500 Khẩu Trang 5D Bông Sen Vàng Cái 3 Lớp</t>
+          <t>Túi màng bọc thực phẩm chất liệu PE treo tường dạng rút TopGia, tiện lợi, có chun co dãn siêu dai</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>₫155.900</t>
+          <t>₫55.001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>500k+</t>
+          <t>60k+</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/17895261815?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/42802509340?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-midydsa2hbt2cf.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-mjfdb6kbxwxtfd.webp</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>shopee_17895261815</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>shopee_42802509340</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>94a11f0865aaa52d980fe1a9b291297f</t>
+          <t>df936fde41eb3af914e5bbd5b0976369</t>
         </is>
       </c>
     </row>
@@ -645,48 +642,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Quả Cầu Pha Lê Vũ Trụ Phát SángQuả Cầu Thủy Tinh Trang trí phòng ngủ Night Light Quà tặng sinh nhật cho phụ nữ</t>
+          <t>[Set 100 Cái] Khẩu Trang 5D THỊNH PHÁT Đủ Màu Chính Hãng, 3 Lớp Kháng Khuẩn Dễ Thở, Chống Bụi Mịn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>₫47.000</t>
+          <t>₫25.000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30k+</t>
+          <t>50k+</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/28910590009?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/20574771962?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7ras8-m45t34ueqpb483.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7ras8-mavd3cx76yz03c.webp</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>shopee_28910590009</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>shopee_20574771962</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>e30c5604675bf327647e53e6747701fd</t>
+          <t>fbbdfe632b94bbe38e9c32a4a46f016e</t>
         </is>
       </c>
     </row>
@@ -698,48 +694,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>【Tặng quà/Bảo hành nửa năm】GOOJODQ 4000 mAh Turbo Jet Mini Quạt Sạc Tốc Độ Cao Cầm Tay Di Động Gió Mạnh 100 Gear</t>
+          <t>Nước Giặt TopGia 3in1 Hương Lavender Dịu Nhẹ Làm Sạch Vết Bẩn, Lưu Hương 72h, Túi 2L</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>₫129.000</t>
+          <t>₫79.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>40k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/26358982961?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/22061511007?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/cn-11134207-7ras8-mdqxom6hpf0nda.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-81ztc-ml1gzgyor9c17f.webp</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>shopee_26358982961</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>shopee_22061511007</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>9572e25628b437624bc32ff2b914d9fd</t>
+          <t>dae86f891c21f32d26c6bc99f41e622e</t>
         </is>
       </c>
     </row>
@@ -751,48 +746,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nước Giặt TopGia 3in1 Hương Lavender Dịu Nhẹ Làm Sạch Vết Bẩn, Lưu Hương 72h, Túi 2L</t>
+          <t>【Tặng quà/Bảo hành nửa năm】GOOJODOQ Quạt Turbo Jet 4000 mAh có thể sạc lại, cầm tay, di động, gió mạnh, tốc độ cao 100 vòng/phút</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>₫79.000</t>
+          <t>₫250.000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>200k+</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/22061511007?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/25176208160?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-81ztc-ml1gzgyor9c17f.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/cn-11134207-820l4-mkf025vn6vif61.webp</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>shopee_22061511007</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>shopee_25176208160</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>dae86f891c21f32d26c6bc99f41e622e</t>
+          <t>c6fa98f5a92a9b7bd01ee0cd05612560</t>
         </is>
       </c>
     </row>
@@ -804,48 +798,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Máy Sấy Tóc Ion Âm 2 Chiều Nóng Lạnh Chăm Sóc Tóc Tốc Độ, Có 3 Chế Độ Sấy, Tặng Kèm Đầu Sấy Tạo Kiểu</t>
+          <t>【Tặng quà/Bảo hành nửa năm】GOOJODQ 4000 mAh Turbo Jet Mini Quạt Sạc Tốc Độ Cao Cầm Tay Di Động Gió Mạnh 100 Gear</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>₫379.000</t>
+          <t>₫129.000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>200k+</t>
+          <t>40k+</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/25306110681?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/26358982961?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-81ztc-ml1u5txjjhtzd5.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/cn-11134207-7ras8-mdqxom6hpf0nda.webp</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>shopee_25306110681</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>shopee_26358982961</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2846f4afc78b36d54b453f1f41279d83</t>
+          <t>9572e25628b437624bc32ff2b914d9fd</t>
         </is>
       </c>
     </row>
@@ -857,48 +850,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Túi màng bọc thực phẩm chất liệu PE treo tường dạng rút TopGia, tiện lợi, có chun co dãn siêu dai</t>
+          <t>Bảo hành 6 tháng Quạt mini GOOJODOQ 100 tốc độ gió có thể điều chỉnh màn hình kỹ thuật số cầm tay</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>₫55.001</t>
+          <t>₫349.000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>60k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/42802509340?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/25725120069?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-mjfdb6kbxwxtfd.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7ras8-matn3i3v0zwhe4.webp</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>shopee_42802509340</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>shopee_25725120069</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>df936fde41eb3af914e5bbd5b0976369</t>
+          <t>28e1d811ecf966face09e18b5bffba7b</t>
         </is>
       </c>
     </row>
@@ -910,48 +902,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>【Tặng quà/Bảo hành nửa năm】GOOJODOQ Quạt Turbo Jet 4000 mAh có thể sạc lại, cầm tay, di động, gió mạnh, tốc độ cao 100 vòng/phút</t>
+          <t>Thùng 500 Khẩu Trang 5D Bông Sen Vàng Cái 3 Lớp</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>₫250.000</t>
+          <t>₫155.900</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>200k+</t>
+          <t>500k+</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/25176208160?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/17895261815?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/cn-11134207-820l4-mkf025vn6vif61.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-midydsa2hbt2cf.webp</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>shopee_25176208160</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>shopee_17895261815</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>c6fa98f5a92a9b7bd01ee0cd05612560</t>
+          <t>94a11f0865aaa52d980fe1a9b291297f</t>
         </is>
       </c>
     </row>
@@ -963,48 +954,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hộp đựng tiền tiết kiệm thông minh nhiều mức lên kế hoạch tiện lợi thử thách 100 ngày Happy Birds</t>
+          <t>Chân váy công sở chữ A xẻ tà chất mango cao cấp siêu thanh lịch nhẹ nhàng cho nữ nhiều mẫu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>₫41.900</t>
+          <t>₫103.999</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5k+</t>
+          <t>20k+</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/43026328962?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/16738165846?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-mi2wc95ro8hs62.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/e5f2db1ea87ac521e75f01e600c672bf.webp</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>shopee_43026328962</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>shopee_16738165846</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>da144bcc146001401b4f020650da7530</t>
+          <t>267df5437a377fca84df07c08285c2e0</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1006,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[Set 100 Cái] Khẩu Trang 5D THỊNH PHÁT Đủ Màu Chính Hãng, 3 Lớp Kháng Khuẩn Dễ Thở, Chống Bụi Mịn</t>
+          <t>[Combo 100 Cái] Khẩu Trang 5D Tấn Phát,Thịnh Phát, Màu Trắng Đen,Chống Nắng,Chống Bụi,Chống Tia UV,Hàng Chính Hãng Cty.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>₫25.000</t>
+          <t>₫27.000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>50k+</t>
+          <t>800k+</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1041,23 +1031,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/20574771962?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/21494586018?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7ras8-mavd3cx76yz03c.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/sg-11134201-7rdx9-mbt0fczg5n6vf4.webp</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>shopee_20574771962</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>shopee_21494586018</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>fbbdfe632b94bbe38e9c32a4a46f016e</t>
+          <t>c4a5c00a4ea61650e1ba8b96afbfed74</t>
         </is>
       </c>
     </row>
@@ -1069,48 +1058,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Máy sấy tóc mini CWell gấp gọn 2 chiều nóng lạnh C01HD, công suất 1200W, ánh sáng xanh bảo vệ tóc</t>
+          <t>Dép nữ xixitiao mềm nhẹ giá rẻ, dép đi trong nhà phong cách dễ thương mẫu mới [Lù store] - 8903</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>₫129.000</t>
+          <t>₫28.995</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>300k+</t>
+          <t>200k+</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/17095132248?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/22646727739?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-81ztc-mk4oa728rqpv69.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7qukw-lil5y6bhu28id8.webp</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>shopee_17095132248</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>shopee_22646727739</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5a8fea61fe4726ff4b44c0a804b9976f</t>
+          <t>4fa8cabc0e6768795c4270c34eb8300d</t>
         </is>
       </c>
     </row>
@@ -1122,22 +1110,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cường lực chống nhìn trộm có khung tự dán cho iphone 11 pro max 12 pro max 13 promax x xr xs max 7 8 plus 14 15 16 17</t>
+          <t>Khăn giấy rút Top Gia GiaGia treo tường đa năng 1000 tờ 4 lớp tặng 3 móc treo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>₫26.900</t>
+          <t>₫95.001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1tr+</t>
+          <t>300k+</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1147,23 +1135,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/20625866584?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/26618832095?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7r98o-lxgcit0b6pjv9a.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-mjfd4lijsfetca.webp</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>shopee_20625866584</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>shopee_26618832095</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1828f870c8980bc24b51074715538029</t>
+          <t>f55c1433b90f6b8c1e9900b58ef8cb42</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1200,6 @@
           <t>shopee_24122062625</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>aea3e81b070cb6ce3fe4a34b389738a2</t>
@@ -1228,48 +1214,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>❌Hàng Có Sẵn❌ Dép Đi Trong Nhà , Nhà Tắm , Văn Phòng Dáng Lỗ Siêu Bền, Siêu Nhẹ Chống Trơn Trượt 1899 Lamon Store</t>
+          <t>Nước Giặt Xả Top Gia 3in1 Đa Sắc Hương Lavender Dịu Nhẹ An Toàn Cho Da Lưu Hương 72H</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>₫27.028</t>
+          <t>₫129.001</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>300k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/7881305878?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/27004677807?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134211-7r98o-lnmfp8vk3ypm67.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-81ztc-ml647eowf9xr13.webp</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>shopee_7881305878</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>shopee_27004677807</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>d37ecb0babc300bf8e8af836233ecb5a</t>
+          <t>6d4f188818ba3165aff89ea6926c38ae</t>
         </is>
       </c>
     </row>
@@ -1281,48 +1266,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chân váy công sở chữ A xẻ tà chất mango cao cấp siêu thanh lịch nhẹ nhàng cho nữ nhiều mẫu</t>
+          <t>Máy sấy tóc mini CWell gấp gọn 2 chiều nóng lạnh C01HD, công suất 1200W, ánh sáng xanh bảo vệ tóc</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>₫103.999</t>
+          <t>₫129.000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20k+</t>
+          <t>300k+</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/16738165846?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/17095132248?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/e5f2db1ea87ac521e75f01e600c672bf.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-81ztc-mk4oa728rqpv69.webp</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>shopee_16738165846</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>shopee_17095132248</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>267df5437a377fca84df07c08285c2e0</t>
+          <t>5a8fea61fe4726ff4b44c0a804b9976f</t>
         </is>
       </c>
     </row>
@@ -1334,48 +1318,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Móc Treo Điện Thoại Ngựa Vàng May Mắn Phát Tài</t>
+          <t>Hộp đựng tiền tiết kiệm thông minh nhiều mức lên kế hoạch tiện lợi thử thách 100 ngày Happy Birds</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>₫16.660</t>
+          <t>₫41.900</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4k+</t>
+          <t>5k+</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/40077590941?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/43026328962?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-mjcemwfm4c1v32.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-820l4-mi2wc95ro8hs62.webp</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>shopee_40077590941</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>shopee_43026328962</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>9e74ee3171de64f1b6a314644d8d3e2f</t>
+          <t>da144bcc146001401b4f020650da7530</t>
         </is>
       </c>
     </row>
@@ -1387,48 +1370,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nước Giặt Xả Top Gia 3in1 Đa Sắc Hương Lavender Dịu Nhẹ An Toàn Cho Da Lưu Hương 72H</t>
+          <t>Máy Sấy Tóc Ion Âm 2 Chiều Nóng Lạnh Chăm Sóc Tóc Tốc Độ, Có 3 Chế Độ Sấy, Tặng Kèm Đầu Sấy Tạo Kiểu</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>₫129.001</t>
+          <t>₫379.000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>200k+</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/27004677807?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/25306110681?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-81ztc-ml647eowf9xr13.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-81ztc-ml1u5txjjhtzd5.webp</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>shopee_27004677807</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>shopee_25306110681</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6d4f188818ba3165aff89ea6926c38ae</t>
+          <t>2846f4afc78b36d54b453f1f41279d83</t>
         </is>
       </c>
     </row>
@@ -1440,48 +1422,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dép nữ xixitiao mềm nhẹ giá rẻ, dép đi trong nhà phong cách dễ thương mẫu mới [Lù store] - 8903</t>
+          <t>Quả Cầu Pha Lê Vũ Trụ Phát SángQuả Cầu Thủy Tinh Trang trí phòng ngủ Night Light Quà tặng sinh nhật cho phụ nữ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>₫28.995</t>
+          <t>₫47.000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>200k+</t>
+          <t>30k+</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/22646727739?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/28910590009?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7qukw-lil5y6bhu28id8.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134207-7ras8-m45t34ueqpb483.webp</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>shopee_22646727739</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>shopee_28910590009</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4fa8cabc0e6768795c4270c34eb8300d</t>
+          <t>e30c5604675bf327647e53e6747701fd</t>
         </is>
       </c>
     </row>
@@ -1493,85 +1474,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Combo 100 Cái] Khẩu Trang 5D Tấn Phát,Thịnh Phát, Màu Trắng Đen,Chống Nắng,Chống Bụi,Chống Tia UV,Hàng Chính Hãng Cty.</t>
+          <t>❌Hàng Có Sẵn❌ Dép Đi Trong Nhà , Nhà Tắm , Văn Phòng Dáng Lỗ Siêu Bền, Siêu Nhẹ Chống Trơn Trượt 1899 Lamon Store</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>₫27.000</t>
+          <t>₫27.028</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>800k+</t>
+          <t>300k+</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/21494586018?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/7881305878?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://down-zl-vn.img.susercontent.com/sg-11134201-7rdx9-mbt0fczg5n6vf4.webp</t>
+          <t>https://down-zl-vn.img.susercontent.com/vn-11134211-7r98o-lnmfp8vk3ypm67.webp</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>shopee_21494586018</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>shopee_7881305878</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>c4a5c00a4ea61650e1ba8b96afbfed74</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Tên mới</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Liên hệ</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>https://via.placeholder.com/400x300?text=No+Image</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+          <t>d37ecb0babc300bf8e8af836233ecb5a</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1518,6 +1518,43 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tên mới</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Liên hệ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://via.placeholder.com/400x300?text=No+Image</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1518,43 +1518,6 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Tên mới</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Liên hệ</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>https://via.placeholder.com/400x300?text=No+Image</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -1395,7 +1395,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/25306110681?trace=%7B%22trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.10etb5Hn32b.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>lllll</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,1066 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ốp Lưng iPhone TPU Đệm Nhung Chống bẩn, Bảo Vệ Camera - iP 6/7/8/X/XS/XR/11/12/13/14/15/16/17/Mini/Plus/Pro/Max/Air</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>₫36.900</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>100k+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20,5%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/28309604497?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m9zvcez1crh646.webp</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>shopee_28309604497</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>f964feaef61a547259e18e2061a3a92f</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[Set 100 Cái] Khẩu Trang 5D THỊNH PHÁT Đủ Màu Chính Hãng, 3 Lớp Kháng Khuẩn Dễ Thở, Chống Bụi Mịn</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>₫25.000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>50k+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/20574771962?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mavd3cx76yz03c.webp</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>shopee_20574771962</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>fbbdfe632b94bbe38e9c32a4a46f016e</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thùng 30 gói giấy ăn cao cấp Gumi 3 lớp / 4 lớp mềm mịn, tiện lợi Khăn Giấy để Phòng Khách</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>₫64.000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90k+</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/18120865798?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m7pz1o80h1kj69.webp</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>shopee_18120865798</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3c8266030ac3239e0d872c54701d6246</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dép sục nữ charm đá Ngẫu Nhiên đế 8cm bản mới, Sục nữ đế cao phong cách năng động chất liệu eva Shoes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>₫69.900</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30k+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/29122005562?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m4bifnoyfl5b05.webp</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>shopee_29122005562</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0b6fe2b3cb0884d59914f92c269ab6ed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sạc Dựng Phòng Trong Suốt 30000mAh Với 2 Cổng Sạc Nhanh 22.5w và PD 20W Kèm 4 Đầu Sạc Màn Hình LED- DL Tech</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>₫175.000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>600k+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/28818204493?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m437xn8e1zmoe3.webp</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>shopee_28818204493</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ff20e4613b46acf66438bb390719ed10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chân váy công sở chữ A xẻ tà chất mango cao cấp siêu thanh lịch nhẹ nhàng cho nữ nhiều mẫu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>₫103.999</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20k+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/16738165846?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/e5f2db1ea87ac521e75f01e600c672bf.webp</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>shopee_16738165846</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>267df5437a377fca84df07c08285c2e0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[ Combo 12 ] Cuộn Túi Nilong 500gr Đen - Tự Phân Hủy, Siêu Dày, Tiện Lợi Cho Gia Đình</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>₫27.000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10k+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/27602165886?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mdclywvpdzmk06.webp</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>shopee_27602165886</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>74cb6391f9cf297f4d3af5217e9f772c</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[Combo 100 Cái] Khẩu Trang 5D Tấn Phát,Thịnh Phát, Màu Trắng Đen,Chống Nắng,Chống Bụi,Chống Tia UV,Hàng Chính Hãng Cty.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>₫27.000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>800k+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/21494586018?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-7rdx9-mbt0fczg5n6vf4.webp</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>shopee_21494586018</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>c4a5c00a4ea61650e1ba8b96afbfed74</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ốp Lưng iPhone TPU Chống Bẩn Lót Nhung, Bảo Vệ Camera - iP 7/8/X/XS/XR/11/12/13/14/15/16/17/Mini/Plus/Pro/Max/Air</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>₫36.900</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>300k+</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>20,5%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/26609048170?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-ma0no4sczi8q98.webp</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>shopee_26609048170</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>cb24fdb0c2e61bc785d9c220e475f803</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>❌Hàng Có Sẵn❌ Dép Đi Trong Nhà , Nhà Tắm , Văn Phòng Dáng Lỗ Siêu Bền, Siêu Nhẹ Chống Trơn Trượt 1899 Lamon Store</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>₫27.028</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>300k+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/7881305878?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134211-7r98o-lnmfp8vk3ypm67.webp</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>shopee_7881305878</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>d37ecb0babc300bf8e8af836233ecb5a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Thùng 30 gói giấy ăn rút Topgia 3 màu cao cấp 4 lớp dày dặn, mềm mịn, thùng 16/36/46/10 gói</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>₫62.001</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1tr+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/17532975547?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mfevehfzp2iz43.webp</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>shopee_17532975547</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>67e3c62fbd3994cc14bb8132dcdca900</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Quả Cầu Pha Lê Vũ Trụ Phát SángQuả Cầu Thủy Tinh Trang trí phòng ngủ Night Light Quà tặng sinh nhật cho phụ nữ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>₫47.000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30k+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/28910590009?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m45t34ueqpb483.webp</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>shopee_28910590009</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>e30c5604675bf327647e53e6747701fd</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Giá Đỡ Điện Thoại Máy Tính Bảng Để Bàn Kim Loại Xoay 360, Chắc Chắn Có Thể Gấp Gọn</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>₫21.900</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60k+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/26608435581?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m7bzngkgd7qu65.webp</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>shopee_26608435581</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>9453f157f9ac44f36486deb4bf1af0ee</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bộ đồ nữ quần đùi áo cộc mặc nhà rẻ đẹp mùa hè set bộ quần áo nữ 3 SIZE 45-75KG bigsize chất thun cotton miumiu</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>₫69.420</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20k+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/27250911756?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7r98o-lvpm9ot53k3d10.webp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>shopee_27250911756</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>89b59a196c271202057bc81be0ff5126</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Khăn giấy rút Top Gia GiaGia treo tường đa năng 1000 tờ 4 lớp tặng 3 móc treo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>₫95.001</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>300k+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/26618832095?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mjfd4lijsfetca.webp</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>shopee_26618832095</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>f55c1433b90f6b8c1e9900b58ef8cb42</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Giỏ đựng quần áo chăn màn đa năng JYoohome Túi vải đựng đồ có thể gấp gọn cỡ lớn giỏ cất trữ</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>₫22.000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>100k+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/19890475439?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7qukw-liu78e0mbnwy0d.webp</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>shopee_19890475439</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4ba404d8c3185eb9ddb3d1724ec0de97</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sạc dự Phòng Led 30000mah - Sạc nhanh 100W - Tích Hợp 2 dây sạc LN và Type C Màn hình hiển thị % Pn</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>₫379.000</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>50k+</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/28850801430?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-miu0mxqi7pqb8f.webp</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>shopee_28850801430</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>e08e49195ea6e398874fe7326c77b177</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ICON bàn học gấp gọn Bàn làm việc cho máy tính xách tay, thích hợp cho sinh viên và người đi làm</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>₫56.700</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40k+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/29300443002?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m9o88q01t5rie3.webp</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>shopee_29300443002</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>e02ed2f4e5f9bda5fa4e53620bebdf86</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nước Giặt TopGia 3in1 Hương Lavender Dịu Nhẹ Làm Sạch Vết Bẩn, Lưu Hương 72h, Túi 2L</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>₫79.000</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>100k+</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/22061511007?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1gzgyor9c17f.webp</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>shopee_22061511007</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>dae86f891c21f32d26c6bc99f41e622e</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Shopee</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Thảm lau chân, thảm chùi chân nhà bếp bali đế cao su chống trơn trượt capybara labubu kitty 40x60cm Kim Huệ X01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>₫9.800</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>700k+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://affiliate.shopee.vn/offer/product_offer/8763548860?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mg4gqfsuhx5750.webp</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>shopee_8763548860</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>4aed6f37a9617f45e82067c3f6c451ac</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,48 +645,48 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dép sục nữ charm đá Ngẫu Nhiên đế 8cm bản mới, Sục nữ đế cao phong cách năng động chất liệu eva Shoes</t>
+          <t>Sạc Dựng Phòng Trong Suốt 30000mAh Với 2 Cổng Sạc Nhanh 22.5w và PD 20W Kèm 4 Đầu Sạc Màn Hình LED- DL Tech</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>₫69.900</t>
+          <t>₫175.000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>30k+</t>
+          <t>600k+</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/29122005562?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/28818204493?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m4bifnoyfl5b05.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m437xn8e1zmoe3.webp</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>shopee_29122005562</t>
+          <t>shopee_28818204493</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0b6fe2b3cb0884d59914f92c269ab6ed</t>
+          <t>ff20e4613b46acf66438bb390719ed10</t>
         </is>
       </c>
     </row>
@@ -698,48 +698,48 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sạc Dựng Phòng Trong Suốt 30000mAh Với 2 Cổng Sạc Nhanh 22.5w và PD 20W Kèm 4 Đầu Sạc Màn Hình LED- DL Tech</t>
+          <t>Chân váy công sở chữ A xẻ tà chất mango cao cấp siêu thanh lịch nhẹ nhàng cho nữ nhiều mẫu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>₫175.000</t>
+          <t>₫103.999</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>600k+</t>
+          <t>20k+</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/28818204493?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/16738165846?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m437xn8e1zmoe3.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/e5f2db1ea87ac521e75f01e600c672bf.webp</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>shopee_28818204493</t>
+          <t>shopee_16738165846</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ff20e4613b46acf66438bb390719ed10</t>
+          <t>267df5437a377fca84df07c08285c2e0</t>
         </is>
       </c>
     </row>
@@ -751,48 +751,48 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chân váy công sở chữ A xẻ tà chất mango cao cấp siêu thanh lịch nhẹ nhàng cho nữ nhiều mẫu</t>
+          <t>[ Combo 12 ] Cuộn Túi Nilong 500gr Đen - Tự Phân Hủy, Siêu Dày, Tiện Lợi Cho Gia Đình</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>₫103.999</t>
+          <t>₫27.000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20k+</t>
+          <t>10k+</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/16738165846?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/27602165886?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/e5f2db1ea87ac521e75f01e600c672bf.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mdclywvpdzmk06.webp</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>shopee_16738165846</t>
+          <t>shopee_27602165886</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>267df5437a377fca84df07c08285c2e0</t>
+          <t>74cb6391f9cf297f4d3af5217e9f772c</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[ Combo 12 ] Cuộn Túi Nilong 500gr Đen - Tự Phân Hủy, Siêu Dày, Tiện Lợi Cho Gia Đình</t>
+          <t>[Combo 100 Cái] Khẩu Trang 5D Tấn Phát,Thịnh Phát, Màu Trắng Đen,Chống Nắng,Chống Bụi,Chống Tia UV,Hàng Chính Hãng Cty.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10k+</t>
+          <t>800k+</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -829,23 +829,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/27602165886?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/21494586018?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mdclywvpdzmk06.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-7rdx9-mbt0fczg5n6vf4.webp</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>shopee_27602165886</t>
+          <t>shopee_21494586018</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>74cb6391f9cf297f4d3af5217e9f772c</t>
+          <t>c4a5c00a4ea61650e1ba8b96afbfed74</t>
         </is>
       </c>
     </row>
@@ -857,48 +857,48 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[Combo 100 Cái] Khẩu Trang 5D Tấn Phát,Thịnh Phát, Màu Trắng Đen,Chống Nắng,Chống Bụi,Chống Tia UV,Hàng Chính Hãng Cty.</t>
+          <t>Ốp Lưng iPhone TPU Chống Bẩn Lót Nhung, Bảo Vệ Camera - iP 7/8/X/XS/XR/11/12/13/14/15/16/17/Mini/Plus/Pro/Max/Air</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>₫27.000</t>
+          <t>₫36.900</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>26%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>800k+</t>
+          <t>300k+</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/21494586018?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/26609048170?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-7rdx9-mbt0fczg5n6vf4.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-ma0no4sczi8q98.webp</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>shopee_21494586018</t>
+          <t>shopee_26609048170</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>c4a5c00a4ea61650e1ba8b96afbfed74</t>
+          <t>cb24fdb0c2e61bc785d9c220e475f803</t>
         </is>
       </c>
     </row>
@@ -910,17 +910,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ốp Lưng iPhone TPU Chống Bẩn Lót Nhung, Bảo Vệ Camera - iP 7/8/X/XS/XR/11/12/13/14/15/16/17/Mini/Plus/Pro/Max/Air</t>
+          <t>❌Hàng Có Sẵn❌ Dép Đi Trong Nhà , Nhà Tắm , Văn Phòng Dáng Lỗ Siêu Bền, Siêu Nhẹ Chống Trơn Trượt 1899 Lamon Store</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>₫36.900</t>
+          <t>₫27.028</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -930,28 +930,28 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/26609048170?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/7881305878?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-ma0no4sczi8q98.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134211-7r98o-lnmfp8vk3ypm67.webp</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>shopee_26609048170</t>
+          <t>shopee_7881305878</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>cb24fdb0c2e61bc785d9c220e475f803</t>
+          <t>d37ecb0babc300bf8e8af836233ecb5a</t>
         </is>
       </c>
     </row>
@@ -963,48 +963,48 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>❌Hàng Có Sẵn❌ Dép Đi Trong Nhà , Nhà Tắm , Văn Phòng Dáng Lỗ Siêu Bền, Siêu Nhẹ Chống Trơn Trượt 1899 Lamon Store</t>
+          <t>Thùng 30 gói giấy ăn rút Topgia 3 màu cao cấp 4 lớp dày dặn, mềm mịn, thùng 16/36/46/10 gói</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>₫27.028</t>
+          <t>₫62.001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>300k+</t>
+          <t>1tr+</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/7881305878?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/17532975547?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134211-7r98o-lnmfp8vk3ypm67.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mfevehfzp2iz43.webp</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>shopee_7881305878</t>
+          <t>shopee_17532975547</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>d37ecb0babc300bf8e8af836233ecb5a</t>
+          <t>67e3c62fbd3994cc14bb8132dcdca900</t>
         </is>
       </c>
     </row>
@@ -1016,48 +1016,48 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thùng 30 gói giấy ăn rút Topgia 3 màu cao cấp 4 lớp dày dặn, mềm mịn, thùng 16/36/46/10 gói</t>
+          <t>Quả Cầu Pha Lê Vũ Trụ Phát SángQuả Cầu Thủy Tinh Trang trí phòng ngủ Night Light Quà tặng sinh nhật cho phụ nữ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>₫62.001</t>
+          <t>₫47.000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1tr+</t>
+          <t>30k+</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/17532975547?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/28910590009?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mfevehfzp2iz43.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m45t34ueqpb483.webp</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>shopee_17532975547</t>
+          <t>shopee_28910590009</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>67e3c62fbd3994cc14bb8132dcdca900</t>
+          <t>e30c5604675bf327647e53e6747701fd</t>
         </is>
       </c>
     </row>
@@ -1069,48 +1069,48 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Quả Cầu Pha Lê Vũ Trụ Phát SángQuả Cầu Thủy Tinh Trang trí phòng ngủ Night Light Quà tặng sinh nhật cho phụ nữ</t>
+          <t>Giá Đỡ Điện Thoại Máy Tính Bảng Để Bàn Kim Loại Xoay 360, Chắc Chắn Có Thể Gấp Gọn</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>₫47.000</t>
+          <t>₫21.900</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>30k+</t>
+          <t>60k+</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/28910590009?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/26608435581?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m45t34ueqpb483.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m7bzngkgd7qu65.webp</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>shopee_28910590009</t>
+          <t>shopee_26608435581</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>e30c5604675bf327647e53e6747701fd</t>
+          <t>9453f157f9ac44f36486deb4bf1af0ee</t>
         </is>
       </c>
     </row>
@@ -1122,48 +1122,48 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Giá Đỡ Điện Thoại Máy Tính Bảng Để Bàn Kim Loại Xoay 360, Chắc Chắn Có Thể Gấp Gọn</t>
+          <t>Bộ đồ nữ quần đùi áo cộc mặc nhà rẻ đẹp mùa hè set bộ quần áo nữ 3 SIZE 45-75KG bigsize chất thun cotton miumiu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>₫21.900</t>
+          <t>₫69.420</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>60k+</t>
+          <t>20k+</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/26608435581?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/27250911756?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m7bzngkgd7qu65.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7r98o-lvpm9ot53k3d10.webp</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>shopee_26608435581</t>
+          <t>shopee_27250911756</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>9453f157f9ac44f36486deb4bf1af0ee</t>
+          <t>89b59a196c271202057bc81be0ff5126</t>
         </is>
       </c>
     </row>
@@ -1175,48 +1175,48 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bộ đồ nữ quần đùi áo cộc mặc nhà rẻ đẹp mùa hè set bộ quần áo nữ 3 SIZE 45-75KG bigsize chất thun cotton miumiu</t>
+          <t>Khăn giấy rút Top Gia GiaGia treo tường đa năng 1000 tờ 4 lớp tặng 3 móc treo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>₫69.420</t>
+          <t>₫95.001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20k+</t>
+          <t>300k+</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/27250911756?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/26618832095?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7r98o-lvpm9ot53k3d10.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mjfd4lijsfetca.webp</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>shopee_27250911756</t>
+          <t>shopee_26618832095</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>89b59a196c271202057bc81be0ff5126</t>
+          <t>f55c1433b90f6b8c1e9900b58ef8cb42</t>
         </is>
       </c>
     </row>
@@ -1228,48 +1228,48 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Khăn giấy rút Top Gia GiaGia treo tường đa năng 1000 tờ 4 lớp tặng 3 móc treo</t>
+          <t>Giỏ đựng quần áo chăn màn đa năng JYoohome Túi vải đựng đồ có thể gấp gọn cỡ lớn giỏ cất trữ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>₫95.001</t>
+          <t>₫22.000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>300k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/26618832095?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/19890475439?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mjfd4lijsfetca.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7qukw-liu78e0mbnwy0d.webp</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>shopee_26618832095</t>
+          <t>shopee_19890475439</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>f55c1433b90f6b8c1e9900b58ef8cb42</t>
+          <t>4ba404d8c3185eb9ddb3d1724ec0de97</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Giỏ đựng quần áo chăn màn đa năng JYoohome Túi vải đựng đồ có thể gấp gọn cỡ lớn giỏ cất trữ</t>
+          <t>Sạc dự Phòng Led 30000mah - Sạc nhanh 100W - Tích Hợp 2 dây sạc LN và Type C Màn hình hiển thị % Pn</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>₫22.000</t>
+          <t>₫379.000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>50k+</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1306,23 +1306,23 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/19890475439?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/28850801430?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7qukw-liu78e0mbnwy0d.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-miu0mxqi7pqb8f.webp</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>shopee_19890475439</t>
+          <t>shopee_28850801430</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4ba404d8c3185eb9ddb3d1724ec0de97</t>
+          <t>e08e49195ea6e398874fe7326c77b177</t>
         </is>
       </c>
     </row>
@@ -1334,48 +1334,48 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sạc dự Phòng Led 30000mah - Sạc nhanh 100W - Tích Hợp 2 dây sạc LN và Type C Màn hình hiển thị % Pn</t>
+          <t>ICON bàn học gấp gọn Bàn làm việc cho máy tính xách tay, thích hợp cho sinh viên và người đi làm</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>₫379.000</t>
+          <t>₫56.700</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>50k+</t>
+          <t>40k+</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/28850801430?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/29300443002?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-miu0mxqi7pqb8f.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m9o88q01t5rie3.webp</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>shopee_28850801430</t>
+          <t>shopee_29300443002</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>e08e49195ea6e398874fe7326c77b177</t>
+          <t>e02ed2f4e5f9bda5fa4e53620bebdf86</t>
         </is>
       </c>
     </row>
@@ -1387,22 +1387,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ICON bàn học gấp gọn Bàn làm việc cho máy tính xách tay, thích hợp cho sinh viên và người đi làm</t>
+          <t>Nước Giặt TopGia 3in1 Hương Lavender Dịu Nhẹ Làm Sạch Vết Bẩn, Lưu Hương 72h, Túi 2L</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>₫56.700</t>
+          <t>₫79.000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>40k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1412,23 +1412,23 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/29300443002?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/22061511007?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m9o88q01t5rie3.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1gzgyor9c17f.webp</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>shopee_29300443002</t>
+          <t>shopee_22061511007</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>e02ed2f4e5f9bda5fa4e53620bebdf86</t>
+          <t>dae86f891c21f32d26c6bc99f41e622e</t>
         </is>
       </c>
     </row>
@@ -1440,99 +1440,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nước Giặt TopGia 3in1 Hương Lavender Dịu Nhẹ Làm Sạch Vết Bẩn, Lưu Hương 72h, Túi 2L</t>
+          <t>Thảm lau chân, thảm chùi chân nhà bếp bali đế cao su chống trơn trượt capybara labubu kitty 40x60cm Kim Huệ X01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>₫79.000</t>
+          <t>₫9.800</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>700k+</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/22061511007?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/8763548860?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1gzgyor9c17f.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mg4gqfsuhx5750.webp</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>shopee_22061511007</t>
+          <t>shopee_8763548860</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
-        <is>
-          <t>dae86f891c21f32d26c6bc99f41e622e</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Shopee</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Thảm lau chân, thảm chùi chân nhà bếp bali đế cao su chống trơn trượt capybara labubu kitty 40x60cm Kim Huệ X01</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>₫9.800</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>700k+</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>11,5%</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/8763548860?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mg4gqfsuhx5750.webp</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>shopee_8763548860</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
         <is>
           <t>4aed6f37a9617f45e82067c3f6c451ac</t>
         </is>

--- a/products.xlsx
+++ b/products.xlsx
@@ -486,48 +486,48 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ốp Lưng iPhone TPU Đệm Nhung Chống bẩn, Bảo Vệ Camera - iP 6/7/8/X/XS/XR/11/12/13/14/15/16/17/Mini/Plus/Pro/Max/Air</t>
+          <t>Thảm lau chân, thảm chùi chân nhà bếp bali đế cao su chống trơn trượt capybara labubu kitty 40x60cm Kim Huệ X01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>₫36.900</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>700k+</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/28309604497?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/8763548860?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m9zvcez1crh646.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mg4gqfsuhx5750.webp</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>shopee_28309604497</t>
+          <t>shopee_8763548860</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f964feaef61a547259e18e2061a3a92f</t>
+          <t>2dcbf229ac27c6d81afc09cfe7b45b43</t>
         </is>
       </c>
     </row>
@@ -539,22 +539,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Set 100 Cái] Khẩu Trang 5D THỊNH PHÁT Đủ Màu Chính Hãng, 3 Lớp Kháng Khuẩn Dễ Thở, Chống Bụi Mịn</t>
+          <t>ICON bàn học gấp gọn Bàn làm việc cho máy tính xách tay, thích hợp cho sinh viên và người đi làm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>₫25.000</t>
+          <t>₫56.700</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>50k+</t>
+          <t>40k+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -564,23 +564,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/20574771962?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/29300443002?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mavd3cx76yz03c.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m9o88q01t5rie3.webp</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>shopee_20574771962</t>
+          <t>shopee_29300443002</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>fbbdfe632b94bbe38e9c32a4a46f016e</t>
+          <t>e02ed2f4e5f9bda5fa4e53620bebdf86</t>
         </is>
       </c>
     </row>
@@ -592,22 +592,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thùng 30 gói giấy ăn cao cấp Gumi 3 lớp / 4 lớp mềm mịn, tiện lợi Khăn Giấy để Phòng Khách</t>
+          <t>[Set 100 Cái] Khẩu Trang 5D THỊNH PHÁT Đủ Màu Chính Hãng, 3 Lớp Kháng Khuẩn Dễ Thở, Chống Bụi Mịn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>₫64.000</t>
+          <t>₫25.000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90k+</t>
+          <t>50k+</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -617,23 +617,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/18120865798?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/20574771962?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m7pz1o80h1kj69.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mavd3cx76yz03c.webp</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>shopee_18120865798</t>
+          <t>shopee_20574771962</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3c8266030ac3239e0d872c54701d6246</t>
+          <t>fbbdfe632b94bbe38e9c32a4a46f016e</t>
         </is>
       </c>
     </row>
@@ -645,22 +645,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sạc Dựng Phòng Trong Suốt 30000mAh Với 2 Cổng Sạc Nhanh 22.5w và PD 20W Kèm 4 Đầu Sạc Màn Hình LED- DL Tech</t>
+          <t>Nước Giặt TopGia 3in1 Hương Lavender Dịu Nhẹ Làm Sạch Vết Bẩn, Lưu Hương 72h, Túi 2L</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>₫175.000</t>
+          <t>₫79.000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>600k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -670,23 +670,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/28818204493?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/22061511007?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m437xn8e1zmoe3.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1gzgyor9c17f.webp</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>shopee_28818204493</t>
+          <t>shopee_22061511007</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>ff20e4613b46acf66438bb390719ed10</t>
+          <t>dae86f891c21f32d26c6bc99f41e622e</t>
         </is>
       </c>
     </row>
@@ -698,22 +698,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chân váy công sở chữ A xẻ tà chất mango cao cấp siêu thanh lịch nhẹ nhàng cho nữ nhiều mẫu</t>
+          <t>Giỏ đựng quần áo chăn màn đa năng JYoohome Túi vải đựng đồ có thể gấp gọn cỡ lớn giỏ cất trữ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>₫103.999</t>
+          <t>₫22.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -723,23 +723,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/16738165846?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/19890475439?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/e5f2db1ea87ac521e75f01e600c672bf.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7qukw-liu78e0mbnwy0d.webp</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>shopee_16738165846</t>
+          <t>shopee_19890475439</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>267df5437a377fca84df07c08285c2e0</t>
+          <t>4ba404d8c3185eb9ddb3d1724ec0de97</t>
         </is>
       </c>
     </row>
@@ -751,48 +751,48 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[ Combo 12 ] Cuộn Túi Nilong 500gr Đen - Tự Phân Hủy, Siêu Dày, Tiện Lợi Cho Gia Đình</t>
+          <t>Sạc dự Phòng Led 30000mah - Sạc nhanh 100W - Tích Hợp 2 dây sạc LN và Type C Màn hình hiển thị % Pn</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>₫27.000</t>
+          <t>₫379.000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10k+</t>
+          <t>50k+</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/27602165886?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/28850801430?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mdclywvpdzmk06.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-miu0mxqi7pqb8f.webp</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>shopee_27602165886</t>
+          <t>shopee_28850801430</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>74cb6391f9cf297f4d3af5217e9f772c</t>
+          <t>e08e49195ea6e398874fe7326c77b177</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Combo 100 Cái] Khẩu Trang 5D Tấn Phát,Thịnh Phát, Màu Trắng Đen,Chống Nắng,Chống Bụi,Chống Tia UV,Hàng Chính Hãng Cty.</t>
+          <t>[ Combo 12 ] Cuộn Túi Nilong 500gr Đen - Tự Phân Hủy, Siêu Dày, Tiện Lợi Cho Gia Đình</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>800k+</t>
+          <t>10k+</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -829,23 +829,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/21494586018?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/27602165886?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-7rdx9-mbt0fczg5n6vf4.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-mdclywvpdzmk06.webp</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>shopee_21494586018</t>
+          <t>shopee_27602165886</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>c4a5c00a4ea61650e1ba8b96afbfed74</t>
+          <t>74cb6391f9cf297f4d3af5217e9f772c</t>
         </is>
       </c>
     </row>
@@ -857,48 +857,48 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ốp Lưng iPhone TPU Chống Bẩn Lót Nhung, Bảo Vệ Camera - iP 7/8/X/XS/XR/11/12/13/14/15/16/17/Mini/Plus/Pro/Max/Air</t>
+          <t>Chân váy công sở chữ A xẻ tà chất mango cao cấp siêu thanh lịch nhẹ nhàng cho nữ nhiều mẫu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>₫36.900</t>
+          <t>₫103.999</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>300k+</t>
+          <t>20k+</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/26609048170?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/16738165846?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-ma0no4sczi8q98.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/e5f2db1ea87ac521e75f01e600c672bf.webp</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>shopee_26609048170</t>
+          <t>shopee_16738165846</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>cb24fdb0c2e61bc785d9c220e475f803</t>
+          <t>267df5437a377fca84df07c08285c2e0</t>
         </is>
       </c>
     </row>
@@ -910,48 +910,48 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>❌Hàng Có Sẵn❌ Dép Đi Trong Nhà , Nhà Tắm , Văn Phòng Dáng Lỗ Siêu Bền, Siêu Nhẹ Chống Trơn Trượt 1899 Lamon Store</t>
+          <t>[Combo 100 Cái] Khẩu Trang 5D Tấn Phát,Thịnh Phát, Màu Trắng Đen,Chống Nắng,Chống Bụi,Chống Tia UV,Hàng Chính Hãng Cty.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>₫27.028</t>
+          <t>₫27.000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>300k+</t>
+          <t>800k+</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/7881305878?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/21494586018?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134211-7r98o-lnmfp8vk3ypm67.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/sg-11134201-7rdx9-mbt0fczg5n6vf4.webp</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>shopee_7881305878</t>
+          <t>shopee_21494586018</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>d37ecb0babc300bf8e8af836233ecb5a</t>
+          <t>c4a5c00a4ea61650e1ba8b96afbfed74</t>
         </is>
       </c>
     </row>
@@ -963,22 +963,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thùng 30 gói giấy ăn rút Topgia 3 màu cao cấp 4 lớp dày dặn, mềm mịn, thùng 16/36/46/10 gói</t>
+          <t>Khăn giấy rút Top Gia GiaGia treo tường đa năng 1000 tờ 4 lớp tặng 3 móc treo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>₫62.001</t>
+          <t>₫95.001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1tr+</t>
+          <t>300k+</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -988,23 +988,23 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/17532975547?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/26618832095?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mfevehfzp2iz43.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mjfd4lijsfetca.webp</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>shopee_17532975547</t>
+          <t>shopee_26618832095</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>67e3c62fbd3994cc14bb8132dcdca900</t>
+          <t>f55c1433b90f6b8c1e9900b58ef8cb42</t>
         </is>
       </c>
     </row>
@@ -1016,48 +1016,48 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Quả Cầu Pha Lê Vũ Trụ Phát SángQuả Cầu Thủy Tinh Trang trí phòng ngủ Night Light Quà tặng sinh nhật cho phụ nữ</t>
+          <t>Thùng 30 gói giấy ăn rút Topgia 3 màu cao cấp 4 lớp dày dặn, mềm mịn, thùng 16/36/46/10 gói</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>₫47.000</t>
+          <t>₫62.001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30k+</t>
+          <t>1tr+</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/28910590009?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/17532975547?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m45t34ueqpb483.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mfevehfzp2iz43.webp</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>shopee_28910590009</t>
+          <t>shopee_17532975547</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>e30c5604675bf327647e53e6747701fd</t>
+          <t>67e3c62fbd3994cc14bb8132dcdca900</t>
         </is>
       </c>
     </row>
@@ -1069,48 +1069,48 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Giá Đỡ Điện Thoại Máy Tính Bảng Để Bàn Kim Loại Xoay 360, Chắc Chắn Có Thể Gấp Gọn</t>
+          <t>Quả Cầu Pha Lê Vũ Trụ Phát SángQuả Cầu Thủy Tinh Trang trí phòng ngủ Night Light Quà tặng sinh nhật cho phụ nữ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>₫21.900</t>
+          <t>₫47.000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>60k+</t>
+          <t>30k+</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/26608435581?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/28910590009?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m7bzngkgd7qu65.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m45t34ueqpb483.webp</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>shopee_26608435581</t>
+          <t>shopee_28910590009</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>9453f157f9ac44f36486deb4bf1af0ee</t>
+          <t>e30c5604675bf327647e53e6747701fd</t>
         </is>
       </c>
     </row>
@@ -1122,48 +1122,48 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bộ đồ nữ quần đùi áo cộc mặc nhà rẻ đẹp mùa hè set bộ quần áo nữ 3 SIZE 45-75KG bigsize chất thun cotton miumiu</t>
+          <t>Sạc Dựng Phòng Trong Suốt 30000mAh Với 2 Cổng Sạc Nhanh 22.5w và PD 20W Kèm 4 Đầu Sạc Màn Hình LED- DL Tech</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>₫69.420</t>
+          <t>₫175.000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20k+</t>
+          <t>600k+</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/27250911756?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/28818204493?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7r98o-lvpm9ot53k3d10.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ras8-m437xn8e1zmoe3.webp</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>shopee_27250911756</t>
+          <t>shopee_28818204493</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>89b59a196c271202057bc81be0ff5126</t>
+          <t>ff20e4613b46acf66438bb390719ed10</t>
         </is>
       </c>
     </row>
@@ -1175,48 +1175,48 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Khăn giấy rút Top Gia GiaGia treo tường đa năng 1000 tờ 4 lớp tặng 3 móc treo</t>
+          <t>Giá Đỡ Điện Thoại Máy Tính Bảng Để Bàn Kim Loại Xoay 360, Chắc Chắn Có Thể Gấp Gọn</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>₫95.001</t>
+          <t>₫21.900</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>300k+</t>
+          <t>60k+</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/26618832095?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/26608435581?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mjfd4lijsfetca.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m7bzngkgd7qu65.webp</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>shopee_26618832095</t>
+          <t>shopee_26608435581</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>f55c1433b90f6b8c1e9900b58ef8cb42</t>
+          <t>9453f157f9ac44f36486deb4bf1af0ee</t>
         </is>
       </c>
     </row>
@@ -1228,48 +1228,48 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Giỏ đựng quần áo chăn màn đa năng JYoohome Túi vải đựng đồ có thể gấp gọn cỡ lớn giỏ cất trữ</t>
+          <t>Ốp Lưng iPhone TPU Chống Bẩn Lót Nhung, Bảo Vệ Camera - iP 7/8/X/XS/XR/11/12/13/14/15/16/17/Mini/Plus/Pro/Max/Air</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>₫22.000</t>
+          <t>₫36.900</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>26%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>300k+</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/19890475439?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/26609048170?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7qukw-liu78e0mbnwy0d.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-ma0no4sczi8q98.webp</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>shopee_19890475439</t>
+          <t>shopee_26609048170</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4ba404d8c3185eb9ddb3d1724ec0de97</t>
+          <t>cb24fdb0c2e61bc785d9c220e475f803</t>
         </is>
       </c>
     </row>
@@ -1281,48 +1281,48 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sạc dự Phòng Led 30000mah - Sạc nhanh 100W - Tích Hợp 2 dây sạc LN và Type C Màn hình hiển thị % Pn</t>
+          <t>Ốp Lưng iPhone TPU Đệm Nhung Chống bẩn, Bảo Vệ Camera - iP 6/7/8/X/XS/XR/11/12/13/14/15/16/17/Mini/Plus/Pro/Max/Air</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>₫379.000</t>
+          <t>₫36.900</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>26%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>50k+</t>
+          <t>100k+</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/28850801430?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/28309604497?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-miu0mxqi7pqb8f.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m9zvcez1crh646.webp</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>shopee_28850801430</t>
+          <t>shopee_28309604497</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>e08e49195ea6e398874fe7326c77b177</t>
+          <t>f964feaef61a547259e18e2061a3a92f</t>
         </is>
       </c>
     </row>
@@ -1334,48 +1334,48 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ICON bàn học gấp gọn Bàn làm việc cho máy tính xách tay, thích hợp cho sinh viên và người đi làm</t>
+          <t>Bộ đồ nữ quần đùi áo cộc mặc nhà rẻ đẹp mùa hè set bộ quần áo nữ 3 SIZE 45-75KG bigsize chất thun cotton miumiu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>₫56.700</t>
+          <t>₫69.420</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>40k+</t>
+          <t>20k+</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/29300443002?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/27250911756?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m9o88q01t5rie3.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7r98o-lvpm9ot53k3d10.webp</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>shopee_29300443002</t>
+          <t>shopee_27250911756</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>e02ed2f4e5f9bda5fa4e53620bebdf86</t>
+          <t>89b59a196c271202057bc81be0ff5126</t>
         </is>
       </c>
     </row>
@@ -1387,22 +1387,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nước Giặt TopGia 3in1 Hương Lavender Dịu Nhẹ Làm Sạch Vết Bẩn, Lưu Hương 72h, Túi 2L</t>
+          <t>Thùng 30 gói giấy ăn cao cấp Gumi 3 lớp / 4 lớp mềm mịn, tiện lợi Khăn Giấy để Phòng Khách</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>₫79.000</t>
+          <t>₫64.000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>100k+</t>
+          <t>90k+</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1412,23 +1412,23 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/22061511007?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/18120865798?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-81ztc-ml1gzgyor9c17f.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-7ra0g-m7pz1o80h1kj69.webp</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>shopee_22061511007</t>
+          <t>shopee_18120865798</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>dae86f891c21f32d26c6bc99f41e622e</t>
+          <t>3c8266030ac3239e0d872c54701d6246</t>
         </is>
       </c>
     </row>
@@ -1440,48 +1440,48 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Thảm lau chân, thảm chùi chân nhà bếp bali đế cao su chống trơn trượt capybara labubu kitty 40x60cm Kim Huệ X01</t>
+          <t>❌Hàng Có Sẵn❌ Dép Đi Trong Nhà , Nhà Tắm , Văn Phòng Dáng Lỗ Siêu Bền, Siêu Nhẹ Chống Trơn Trượt 1899 Lamon Store</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>₫9.800</t>
+          <t>₫27.028</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>700k+</t>
+          <t>300k+</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/8763548860?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://affiliate.shopee.vn/offer/product_offer/7881305878?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://down-bs-vn.img.susercontent.com/vn-11134207-820l4-mg4gqfsuhx5750.webp</t>
+          <t>https://down-bs-vn.img.susercontent.com/vn-11134211-7r98o-lnmfp8vk3ypm67.webp</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>shopee_8763548860</t>
+          <t>shopee_7881305878</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4aed6f37a9617f45e82067c3f6c451ac</t>
+          <t>d37ecb0babc300bf8e8af836233ecb5a</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/8763548860?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/70F1oIw3cz</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -524,7 +524,6 @@
           <t>shopee_8763548860</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>2dcbf229ac27c6d81afc09cfe7b45b43</t>
@@ -564,7 +563,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/29300443002?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/7KrsCuumx1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -577,7 +576,6 @@
           <t>shopee_29300443002</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>e02ed2f4e5f9bda5fa4e53620bebdf86</t>
@@ -617,7 +615,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/20574771962?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/4qAXEK4J1H</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -630,7 +628,6 @@
           <t>shopee_20574771962</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>fbbdfe632b94bbe38e9c32a4a46f016e</t>
@@ -670,7 +667,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/22061511007?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/7AYS0bvQI0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -683,7 +680,6 @@
           <t>shopee_22061511007</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>dae86f891c21f32d26c6bc99f41e622e</t>
@@ -723,7 +719,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/19890475439?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/7fUibWtWH3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -736,7 +732,6 @@
           <t>shopee_19890475439</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>4ba404d8c3185eb9ddb3d1724ec0de97</t>
@@ -776,7 +771,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/28850801430?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/7VBIPDu9c2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -789,7 +784,6 @@
           <t>shopee_28850801430</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>e08e49195ea6e398874fe7326c77b177</t>
@@ -829,7 +823,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/27602165886?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/6VIlDNxxdg</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -842,7 +836,6 @@
           <t>shopee_27602165886</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>74cb6391f9cf297f4d3af5217e9f772c</t>
@@ -882,7 +875,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/16738165846?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/4AuqR66qND</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -895,7 +888,6 @@
           <t>shopee_16738165846</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>267df5437a377fca84df07c08285c2e0</t>
@@ -935,7 +927,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/21494586018?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/6KzL14yayf</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -948,7 +940,6 @@
           <t>shopee_21494586018</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>c4a5c00a4ea61650e1ba8b96afbfed74</t>
@@ -988,7 +979,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/26618832095?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/7po8npssw4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1001,7 +992,6 @@
           <t>shopee_26618832095</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>f55c1433b90f6b8c1e9900b58ef8cb42</t>
@@ -1041,7 +1031,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/17532975547?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/5q34QA0Uzc</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1054,7 +1044,6 @@
           <t>shopee_17532975547</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>67e3c62fbd3994cc14bb8132dcdca900</t>
@@ -1094,7 +1083,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/28910590009?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/5fjeDr18Kb</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1107,7 +1096,6 @@
           <t>shopee_28910590009</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>e30c5604675bf327647e53e6747701fd</t>
@@ -1147,7 +1135,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/28818204493?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/40bQEn7TiA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1160,7 +1148,6 @@
           <t>shopee_28818204493</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>ff20e4613b46acf66438bb390719ed10</t>
@@ -1200,7 +1187,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/26608435581?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/5VQE1Y1lfa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1213,7 +1200,6 @@
           <t>shopee_26608435581</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>9453f157f9ac44f36486deb4bf1af0ee</t>
@@ -1253,7 +1239,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/26609048170?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/6AfuolzEJe</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1266,7 +1252,6 @@
           <t>shopee_26609048170</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>cb24fdb0c2e61bc785d9c220e475f803</t>
@@ -1306,7 +1291,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/28309604497?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/4fr7214wME</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1319,7 +1304,6 @@
           <t>shopee_28309604497</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>f964feaef61a547259e18e2061a3a92f</t>
@@ -1359,7 +1343,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/27250911756?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/5L6npF2P0Z</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1372,7 +1356,6 @@
           <t>shopee_27250911756</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>89b59a196c271202057bc81be0ff5126</t>
@@ -1412,7 +1395,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/18120865798?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/4LEGdP6D2C</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1425,7 +1408,6 @@
           <t>shopee_18120865798</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>3c8266030ac3239e0d872c54701d6246</t>
@@ -1465,7 +1447,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://affiliate.shopee.vn/offer/product_offer/7881305878?trace=%7B%22trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22list_type%22%3A100%2C%22exp_group_ids%22%3A%5B516441%2C629173%2C568974%2C631051%2C646911%2C447311%2C473578%2C447104%2C646439%5D%2C%22root_trace_id%22%3A%220.oCrGHGi1q9.100%22%2C%22root_list_type%22%3A100%7D</t>
+          <t>https://s.shopee.vn/60MUcSzred</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1478,7 +1460,6 @@
           <t>shopee_7881305878</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>d37ecb0babc300bf8e8af836233ecb5a</t>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1466,6 +1466,43 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tên mới</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Liên hệ</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://via.placeholder.com/400x300?text=No+Image</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1503,6 +1503,43 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tên mới</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Liên hệ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://via.placeholder.com/400x300?text=No+Image</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,117 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tên mới</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Liên hệ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://via.placeholder.com/400x300?text=No+Image</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tên mới</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Liên hệ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://via.placeholder.com/400x300?text=No+Image</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tên mới</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Liên hệ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://via.placeholder.com/400x300?text=No+Image</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -568,7 +568,11 @@
           <t>Liên hệ</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
@@ -585,7 +589,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+          <t>66483abaf4e826ef9c1e11ec35023241</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -494,8 +494,16 @@
           <t>Liên hệ</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
@@ -508,10 +516,14 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>chua biet</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+          <t>bf245d34d7bb3918cb3e74514207c3dc</t>
         </is>
       </c>
     </row>
@@ -531,8 +543,16 @@
           <t>Liên hệ</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
@@ -545,10 +565,14 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>biet roi</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+          <t>b03edff1019f544b1dcf08f816e90c9c</t>
         </is>
       </c>
     </row>
@@ -568,12 +592,12 @@
           <t>Liên hệ</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
@@ -586,10 +610,14 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">da biet </t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>66483abaf4e826ef9c1e11ec35023241</t>
+          <t>ded6c271ee9298fdf374a32d95451ce3</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>https://</t>
@@ -515,7 +514,6 @@
           <t>https://via.placeholder.com/400x300?text=No+Image</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>chua biet</t>
@@ -553,7 +551,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>https://</t>
@@ -564,7 +561,6 @@
           <t>https://via.placeholder.com/400x300?text=No+Image</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>biet roi</t>
@@ -573,51 +569,6 @@
       <c r="K3" t="inlineStr">
         <is>
           <t>b03edff1019f544b1dcf08f816e90c9c</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tên mới</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Liên hệ</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://via.placeholder.com/400x300?text=No+Image</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">da biet </t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>ded6c271ee9298fdf374a32d95451ce3</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,43 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tên mới</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Liên hệ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://via.placeholder.com/400x300?text=No+Image</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/products.xlsx
+++ b/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,43 +572,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tên mới</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Liên hệ</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://via.placeholder.com/400x300?text=No+Image</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>d77f60178754eb2d9e9cc9affc1539e8</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
